--- a/Assets/memory_map.xlsx
+++ b/Assets/memory_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="22800" windowHeight="18000"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14595" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,13 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="186">
   <si>
     <t xml:space="preserve">  $080e-$080d Basic End</t>
   </si>
@@ -308,124 +308,16 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>*$0002-$0020 Temp vars zero page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *$0021-$0031 LPAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *$0032-$0045 SpriteX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *$0046-$00a9 SpriteY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  *$00aa-$00d8 SpriteCopyY</t>
-  </si>
-  <si>
     <t xml:space="preserve">  $0810-$0832 Hi score_Data</t>
   </si>
   <si>
     <t xml:space="preserve">  $0880-$08c1 Modules</t>
   </si>
   <si>
-    <t xml:space="preserve">  $08c2-$09d7 IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $09d8-$0a0f Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $0a10-$0a2c Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $0a2d-$0aca Joystick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $0acb-$0e96 SHIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $0e97-$0f30 CheckDead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $0f31-$13d3 Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $13d4-$1b62 Enemies Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $1b63-$1e56 Maploader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $1e57-$2226 WaveMovement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $2227-$25f2 WaveMovement Mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $25f3-$2672 XPaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $2673-$26f2 YPaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $26f3-$278a WaveStartPos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $278b-$27f8 StagesIndex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $27f9-$31ff StagesIndexLookup</t>
-  </si>
-  <si>
     <t xml:space="preserve">  $3200-$3288 VicSpriteTable</t>
   </si>
   <si>
-    <t xml:space="preserve">  $3289-$3562 IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $3563-$35eb Enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $35ec-$3663 Enemy Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $3664-$36ab Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $36ac-$36ec Extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $36ed-$38d9 Enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $38da-$3b05 Spawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $3b06-$4367 Pathfinding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $4368-$46d8 Stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $46d9-$478f Check Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $4790-$493c ---String Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $493d-$4a72 ---Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $4a73-$5718 Enemy Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $5719-$5915 Title</t>
-  </si>
-  <si>
     <t xml:space="preserve">  $6000-$6be9 sid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $6c00-$6de8 Main</t>
   </si>
   <si>
     <t xml:space="preserve">  $7400-$7503 Game Map</t>
@@ -443,67 +335,16 @@
     <t xml:space="preserve">  $8000-$8147 Unnamed</t>
   </si>
   <si>
-    <t xml:space="preserve">  $8148-$8453 Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $8454-$89b5 Bombs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $89b6-$8b94 Lives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $8b95-$8e66 Pre-Stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $8e67-$8ec1 -Random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $8ec2-$8f86 -Plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $8f87-$91f2 STATS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $91f3-$91f4 GAME OVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $91f5-$9219 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $921a-$93ef DisplayGameOver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $93f0-$99a3 BEAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $99a4-$9ee2 -Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $9ee3-$9f2d Attacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $9f2e-$a340 Attackers</t>
-  </si>
-  <si>
     <t xml:space="preserve">  $a400-$a5ff Game ZP Backup</t>
   </si>
   <si>
     <t xml:space="preserve">  $a800-$bfff Sprites Source</t>
   </si>
   <si>
-    <t xml:space="preserve">  $c400-$e47f Sprites</t>
-  </si>
-  <si>
     <t xml:space="preserve">  $f800-$f7ff Unnamed</t>
   </si>
   <si>
     <t xml:space="preserve">  $f800-$f829 High Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  $f82a-$fc50 Position</t>
-  </si>
-  <si>
-    <t>Temp vars zero page</t>
   </si>
   <si>
     <t xml:space="preserve"> LPAX</t>
@@ -561,6 +402,183 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *$0002-$0021 Temp vars zero page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *$0022-$0032 LPAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *$0033-$0046 SpriteX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *$0047-$00aa SpriteY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *$00ab-$00d9 SpriteCopyY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $08c2-$09e1 IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $09e2-$0a2d Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $0a2e-$0a4a Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $0a4b-$0ae8 Joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $0ae9-$0eae SHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $0eaf-$0f48 CheckDead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $0f49-$13eb Bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $13ec-$1baf Enemies Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $1bb0-$1e94 Maploader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $1e95-$2264 WaveMovement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $2265-$2630 WaveMovement Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $2631-$26b0 XPaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $26b1-$2730 YPaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $2731-$27c8 WaveStartPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $27c9-$2836 StagesIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $2837-$294a StagesIndexLookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $294b-$31ff Challenge Paths 4-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $3289-$357a IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $357b-$35fd Enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $35fe-$3675 Enemy Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $3676-$36b1 Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $36b2-$36cf Extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $36d0-$36f2 Enemy Ship ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $36f3-$38f0 Enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $38f1-$3b19 Spawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $3b1a-$436d Pathfinding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $436e-$46ed Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $46ee-$47c6 Check Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $47c7-$4a68 ---String Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $4a69-$4b9e ---Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $4b9f-$565e Enemy Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $565f-$5857 Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $6c00-$6df9 Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8148-$849d Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $849e-$89ff Bombs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8a00-$8bde Lives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8bdf-$8eb0 Pre-Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8eb1-$8f02 -Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8f03-$8fac -Plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $8fad-$9218 STATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $9219-$921a GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $921b-$923f </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $9240-$941a DisplayGameOver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $941b-$99d3 BEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $99d4-$9f16 -Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $9f17-$9f61 Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $9f62-$a374 Attackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $c400-$e4bf Sprites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $f82a-$fc5f Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $fc60-$fc8f Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temp vars zero page</t>
+  </si>
+  <si>
+    <t>Challenge Paths 4-8</t>
+  </si>
+  <si>
+    <t>Enemy Ship ID</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -620,29 +638,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -671,7 +667,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nick" refreshedDate="44457.692804513892" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="176">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nick" refreshedDate="44461.652835532404" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="176">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Data"/>
   </cacheSource>
@@ -680,8 +676,8 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="190">
-        <s v="Temp vars zero page"/>
+      <sharedItems containsBlank="1" count="193">
+        <s v=" Temp vars zero page"/>
         <s v=" LPAX"/>
         <s v=" SpriteX"/>
         <s v=" SpriteY"/>
@@ -706,11 +702,13 @@
         <s v="WaveStartPos"/>
         <s v="StagesIndex"/>
         <s v="StagesIndexLookup"/>
+        <s v="Challenge Paths 4-8"/>
         <s v="VicSpriteTable"/>
         <s v="Enemy"/>
         <s v="Enemy Variables"/>
         <s v="Plan"/>
         <s v="Extra"/>
+        <s v="Enemy Ship ID"/>
         <s v="Enemies"/>
         <s v="Spawn"/>
         <s v="Pathfinding"/>
@@ -747,130 +745,131 @@
         <s v="Charset"/>
         <s v="High Scores"/>
         <s v="Position"/>
+        <s v="Demo"/>
         <m/>
         <e v="#VALUE!"/>
         <s v="__FREE MEMORY"/>
+        <s v="---Toilet" u="1"/>
         <s v=" " u="1"/>
-        <s v="---UI" u="1"/>
-        <s v="---Popup" u="1"/>
-        <s v="7 Temp vars zero page" u="1"/>
-        <s v="OBJECT.GetName" u="1"/>
-        <s v="---Choose" u="1"/>
-        <s v="0 Temp vars zero page" u="1"/>
-        <s v="t:" u="1"/>
-        <s v="---Input" u="1"/>
-        <s v="---Placing" u="1"/>
-        <s v="---Registers" u="1"/>
-        <s v="LOOKUPS" u="1"/>
-        <s v="GAME section 3" u="1"/>
-        <s v="-----Staff" u="1"/>
-        <s v="---Game Data" u="1"/>
+        <s v="---Games" u="1"/>
+        <s v="---Edit" u="1"/>
+        <s v="---Shops" u="1"/>
+        <s v="---Stock" u="1"/>
         <s v="---Plot" u="1"/>
-        <s v=" Local Temp Variables" u="1"/>
-        <s v="OBJECT.GetObjectTypeRating" u="1"/>
-        <s v="---Labels" u="1"/>
-        <s v="---Park Map" u="1"/>
-        <s v="---Buy Tiles" u="1"/>
+        <s v="----People" u="1"/>
         <s v="5 Temp vars zero page" u="1"/>
-        <s v="b Temp vars zero page" u="1"/>
         <s v="COMMON" u="1"/>
-        <s v="PLACING.ShowPreview" u="1"/>
-        <s v="---Edit" u="1"/>
-        <s v="---New Game" u="1"/>
-        <s v="---IRQ" u="1"/>
-        <s v="---Macros" u="1"/>
-        <s v="---Maploader" u="1"/>
-        <s v="End Of Basic" u="1"/>
-        <s v="----Warehouse" u="1"/>
-        <s v="-----Rides" u="1"/>
-        <s v="GAME" u="1"/>
-        <s v="---Random" u="1"/>
-        <s v="---Buy Map" u="1"/>
-        <s v="---Blank SID" u="1"/>
-        <s v="-----Features" u="1"/>
-        <s v="---Hud" u="1"/>
-        <s v="SAVED GAME" u="1"/>
-        <s v="OBJECT.GetTemplateData" u="1"/>
-        <s v="---Remaining" u="1"/>
-        <s v="---Hud Charset" u="1"/>
+        <s v="-----Shops" u="1"/>
+        <s v="---People_Navigate" u="1"/>
+        <s v="---Cash" u="1"/>
+        <s v="PLACING.Reset" u="1"/>
+        <s v="---Char Colours" u="1"/>
+        <s v="MOUSE.CheckFirePosition" u="1"/>
         <s v="---Keyboard Scan" u="1"/>
-        <s v="---Path" u="1"/>
-        <s v="OBJECT.GetType" u="1"/>
-        <s v="---Game Charset" u="1"/>
-        <s v="---People Working Data" u="1"/>
-        <s v="---Happiness" u="1"/>
-        <s v="-----Status" u="1"/>
-        <s v="----DaysLeft" u="1"/>
-        <s v="Keyboard Scan Routine" u="1"/>
-        <s v="---Map" u="1"/>
-        <s v="---Negotiate" u="1"/>
-        <s v="---Game Charse" u="1"/>
-        <s v="8 Temp vars zero page" u="1"/>
-        <s v="---Hud Charset$a3d7 ---Text" u="1"/>
-        <s v="---Disk" u="1"/>
-        <s v="---Games" u="1"/>
-        <s v="---Park" u="1"/>
-        <s v="---Calendar" u="1"/>
+        <s v="-----PosX" u="1"/>
         <s v="---People_Draw" u="1"/>
-        <s v="---Object" u="1"/>
-        <s v="---Menu" u="1"/>
-        <s v="---Bus" u="1"/>
-        <s v="---Money" u="1"/>
-        <s v="PLACING.Reset" u="1"/>
-        <s v="---Object Data" u="1"/>
-        <s v="Free Code Space" u="1"/>
-        <s v="MOUSE.ConvertMousePosToTiles" u="1"/>
-        <s v="---Mouse" u="1"/>
-        <s v="PLACING.FrameUpdate" u="1"/>
+        <s v="----FIRE.FrameUpdate" u="1"/>
         <s v="-----Games" u="1"/>
-        <s v="6 Temp vars zero page" u="1"/>
-        <s v="c Temp vars zero page" u="1"/>
-        <s v="---Cash" u="1"/>
-        <s v="PLACING.CheckIfCanExtendQueue" u="1"/>
-        <s v="----FIRE.FrameUpdate" u="1"/>
-        <s v="-----PosX" u="1"/>
-        <s v="---People" u="1"/>
-        <s v="---Char Colours" u="1"/>
-        <s v="---People_Mental" u="1"/>
-        <s v="---Bank" u="1"/>
-        <s v="---Queue" u="1"/>
-        <s v="-----Shops" u="1"/>
-        <s v="---Hud Tiles" u="1"/>
-        <s v="---People Data" u="1"/>
+        <s v="---Buy" u="1"/>
         <s v="MOUSE.ConvertMouseCharToTile" u="1"/>
         <s v=" Local Temp Variables 2" u="1"/>
+        <s v="---Sprites" u="1"/>
+        <s v="---Negotiate" u="1"/>
+        <s v="OBJECT.GetName" u="1"/>
+        <s v="---Disk" u="1"/>
+        <s v="---People Data" u="1"/>
+        <s v="----Warehouse" u="1"/>
+        <s v="PLACING.ShowPreview" u="1"/>
+        <s v="---Labels" u="1"/>
+        <s v="---UI" u="1"/>
+        <s v="---Save/Load" u="1"/>
+        <s v="---Macros" u="1"/>
+        <s v="GAME section 3" u="1"/>
+        <s v="MOUSE.ConvertMousePosToChars" u="1"/>
+        <s v="---IRQ" u="1"/>
+        <s v="---Select" u="1"/>
+        <s v="---VIC" u="1"/>
+        <s v="8 Temp vars zero page" u="1"/>
+        <s v="---Buy Map" u="1"/>
+        <s v="---Queue" u="1"/>
+        <s v="Keyboard Scan Routine" u="1"/>
+        <s v="---People Lookups" u="1"/>
+        <s v="0 Temp vars zero page" u="1"/>
+        <s v="---Game Charset" u="1"/>
+        <s v="---People" u="1"/>
+        <s v="---New Game" u="1"/>
+        <s v="---Hud Charset" u="1"/>
+        <s v="c Temp vars zero page" u="1"/>
+        <s v="---Input" u="1"/>
+        <s v="---Calendar" u="1"/>
+        <s v="-----Staff" u="1"/>
+        <s v="End Of Memory" u="1"/>
+        <s v="---Menu" u="1"/>
+        <s v="FIRE.FrameUpdate" u="1"/>
+        <s v="Upstart" u="1"/>
+        <s v="---People Working Data" u="1"/>
+        <s v="---Buy Tiles" u="1"/>
+        <s v="OBJECT.GetObjectTypeRating" u="1"/>
+        <s v="---Registers" u="1"/>
+        <s v="GAME" u="1"/>
+        <s v="---Bank" u="1"/>
+        <s v="GAME section 2" u="1"/>
+        <s v="---Hud" u="1"/>
+        <s v="---Sound" u="1"/>
+        <s v="---Remaining" u="1"/>
+        <s v="OBJECT.GetData" u="1"/>
+        <s v="---Rides" u="1"/>
+        <s v="7 Temp vars zero page" u="1"/>
+        <s v="---Maploader" u="1"/>
+        <s v="OBJECT.GetTemplateData" u="1"/>
+        <s v="---People Unrolled" u="1"/>
+        <s v="---Object Data" u="1"/>
+        <s v="ASSETS" u="1"/>
+        <s v="b Temp vars zero page" u="1"/>
+        <s v="---People_Mental" u="1"/>
+        <s v="Free Code Space" u="1"/>
+        <s v="---Hud Colours" u="1"/>
+        <s v="---Park" u="1"/>
+        <s v="---Hud Map" u="1"/>
+        <s v="---Game Data" u="1"/>
+        <s v="----DaysLeft" u="1"/>
+        <s v="---Research" u="1"/>
+        <s v="GAME section 1" u="1"/>
+        <s v="---Popup" u="1"/>
+        <s v="---Money" u="1"/>
+        <s v="LOOKUPS" u="1"/>
+        <s v="OBJECT.GetType" u="1"/>
+        <s v="---Object" u="1"/>
+        <s v="t:" u="1"/>
+        <s v="PLACING.FrameUpdate" u="1"/>
+        <s v="OBJECT.GetCapacityReliability" u="1"/>
+        <s v="---Game Charse" u="1"/>
+        <s v="---Hud Tiles" u="1"/>
+        <s v="---Random" u="1"/>
         <s v="---Screen RAM" u="1"/>
-        <s v=" Temp vars zero page" u="1"/>
-        <s v="---Rides" u="1"/>
-        <s v="---Select" u="1"/>
-        <s v="---Save/Load" u="1"/>
-        <s v="---VIC" u="1"/>
-        <s v="---Hud Colours" u="1"/>
-        <s v="GAME section 1" u="1"/>
-        <s v="---Buy" u="1"/>
-        <s v="---Hud Map" u="1"/>
-        <s v="---People_Navigate" u="1"/>
-        <s v="ASSETS" u="1"/>
-        <s v="---Sprites" u="1"/>
         <s v="---Fire" u="1"/>
-        <s v="---Stock" u="1"/>
-        <s v="Upstart" u="1"/>
-        <s v="---Shops" u="1"/>
-        <s v="OBJECT.GetData" u="1"/>
-        <s v="FIRE.FrameUpdate" u="1"/>
-        <s v="---Sound" u="1"/>
+        <s v=" Local Temp Variables" u="1"/>
+        <s v="6 Temp vars zero page" u="1"/>
+        <s v="-----Rides" u="1"/>
+        <s v="Temp vars zero page" u="1"/>
+        <s v="---Happiness" u="1"/>
+        <s v="2 Temp vars zero page" u="1"/>
+        <s v="---Hud Charset$a3d7 ---Text" u="1"/>
+        <s v="---Mouse" u="1"/>
+        <s v="-----Features" u="1"/>
+        <s v="---Park Map" u="1"/>
+        <s v="PLACING.CheckIfCanExtendQueue" u="1"/>
+        <s v="-----Status" u="1"/>
+        <s v="---Blank SID" u="1"/>
+        <s v="---Map" u="1"/>
         <s v=" Local Variables" u="1"/>
-        <s v="2 Temp vars zero page" u="1"/>
-        <s v="---People Lookups" u="1"/>
-        <s v="MOUSE.CheckFirePosition" u="1"/>
-        <s v="GAME section 2" u="1"/>
-        <s v="---Research" u="1"/>
-        <s v="MOUSE.ConvertMousePosToChars" u="1"/>
-        <s v="OBJECT.GetCapacityReliability" u="1"/>
-        <s v="---Toilet" u="1"/>
-        <s v="----People" u="1"/>
-        <s v="End Of Memory" u="1"/>
-        <s v="---People Unrolled" u="1"/>
+        <s v="---Bus" u="1"/>
+        <s v="MOUSE.ConvertMousePosToTiles" u="1"/>
+        <s v="---Choose" u="1"/>
+        <s v="SAVED GAME" u="1"/>
+        <s v="End Of Basic" u="1"/>
+        <s v="---Path" u="1"/>
+        <s v="---Placing" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="StartHex" numFmtId="0">
@@ -880,13 +879,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Start" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="63530"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="64608"/>
     </cacheField>
     <cacheField name="End" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="64592"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="64655"/>
     </cacheField>
     <cacheField name="Used" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13070"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="13063"/>
     </cacheField>
     <cacheField name="Show" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -1072,8 +1071,8 @@
         <n v="172"/>
         <n v="0"/>
         <m/>
+        <n v="174" u="1"/>
         <n v="173" u="1"/>
-        <n v="174" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1083,56 +1082,56 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="176">
   <r>
-    <s v="*$0002-$0020 Temp vars zero page"/>
+    <s v=" *$0002-$0021 Temp vars zero page"/>
     <x v="0"/>
     <s v="0002"/>
-    <s v="0020"/>
+    <s v="0021"/>
     <n v="2"/>
+    <n v="33"/>
     <n v="32"/>
-    <n v="31"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="  *$0021-$0031 LPAX"/>
+    <s v="  *$0022-$0032 LPAX"/>
     <x v="1"/>
-    <s v="0021"/>
-    <s v="0031"/>
-    <n v="33"/>
-    <n v="49"/>
+    <s v="0022"/>
+    <s v="0032"/>
+    <n v="34"/>
+    <n v="50"/>
     <n v="17"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="  *$0032-$0045 SpriteX"/>
+    <s v="  *$0033-$0046 SpriteX"/>
     <x v="2"/>
-    <s v="0032"/>
-    <s v="0045"/>
-    <n v="50"/>
-    <n v="69"/>
+    <s v="0033"/>
+    <s v="0046"/>
+    <n v="51"/>
+    <n v="70"/>
     <n v="20"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="  *$0046-$00a9 SpriteY"/>
+    <s v="  *$0047-$00aa SpriteY"/>
     <x v="3"/>
-    <s v="0046"/>
-    <s v="00a9"/>
-    <n v="70"/>
-    <n v="169"/>
+    <s v="0047"/>
+    <s v="00aa"/>
+    <n v="71"/>
+    <n v="170"/>
     <n v="100"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="  *$00aa-$00d8 SpriteCopyY"/>
+    <s v="  *$00ab-$00d9 SpriteCopyY"/>
     <x v="4"/>
-    <s v="00aa"/>
-    <s v="00d8"/>
-    <n v="170"/>
-    <n v="216"/>
+    <s v="00ab"/>
+    <s v="00d9"/>
+    <n v="171"/>
+    <n v="217"/>
     <n v="47"/>
     <x v="0"/>
     <x v="4"/>
@@ -1182,690 +1181,690 @@
     <x v="8"/>
   </r>
   <r>
-    <s v="  $08c2-$09d7 IRQ"/>
+    <s v="  $08c2-$09e1 IRQ"/>
     <x v="9"/>
     <s v="08c2"/>
-    <s v="09d7"/>
+    <s v="09e1"/>
     <n v="2242"/>
-    <n v="2519"/>
-    <n v="278"/>
+    <n v="2529"/>
+    <n v="288"/>
     <x v="0"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="  $09d8-$0a0f Utility"/>
+    <s v="  $09e2-$0a2d Utility"/>
     <x v="10"/>
-    <s v="09d8"/>
-    <s v="0a0f"/>
-    <n v="2520"/>
-    <n v="2575"/>
-    <n v="56"/>
+    <s v="09e2"/>
+    <s v="0a2d"/>
+    <n v="2530"/>
+    <n v="2605"/>
+    <n v="76"/>
     <x v="0"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="  $0a10-$0a2c Input"/>
+    <s v="  $0a2e-$0a4a Input"/>
     <x v="11"/>
-    <s v="0a10"/>
-    <s v="0a2c"/>
-    <n v="2576"/>
-    <n v="2604"/>
+    <s v="0a2e"/>
+    <s v="0a4a"/>
+    <n v="2606"/>
+    <n v="2634"/>
     <n v="29"/>
     <x v="0"/>
     <x v="11"/>
   </r>
   <r>
-    <s v="  $0a2d-$0aca Joystick"/>
+    <s v="  $0a4b-$0ae8 Joystick"/>
     <x v="12"/>
-    <s v="0a2d"/>
-    <s v="0aca"/>
-    <n v="2605"/>
-    <n v="2762"/>
+    <s v="0a4b"/>
+    <s v="0ae8"/>
+    <n v="2635"/>
+    <n v="2792"/>
     <n v="158"/>
     <x v="0"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="  $0acb-$0e96 SHIP"/>
+    <s v="  $0ae9-$0eae SHIP"/>
     <x v="13"/>
-    <s v="0acb"/>
-    <s v="0e96"/>
-    <n v="2763"/>
-    <n v="3734"/>
-    <n v="972"/>
+    <s v="0ae9"/>
+    <s v="0eae"/>
+    <n v="2793"/>
+    <n v="3758"/>
+    <n v="966"/>
     <x v="0"/>
     <x v="13"/>
   </r>
   <r>
-    <s v="  $0e97-$0f30 CheckDead"/>
+    <s v="  $0eaf-$0f48 CheckDead"/>
     <x v="14"/>
-    <s v="0e97"/>
-    <s v="0f30"/>
-    <n v="3735"/>
-    <n v="3888"/>
+    <s v="0eaf"/>
+    <s v="0f48"/>
+    <n v="3759"/>
+    <n v="3912"/>
     <n v="154"/>
     <x v="0"/>
     <x v="14"/>
   </r>
   <r>
-    <s v="  $0f31-$13d3 Bullets"/>
+    <s v="  $0f49-$13eb Bullets"/>
     <x v="15"/>
-    <s v="0f31"/>
-    <s v="13d3"/>
-    <n v="3889"/>
-    <n v="5075"/>
+    <s v="0f49"/>
+    <s v="13eb"/>
+    <n v="3913"/>
+    <n v="5099"/>
     <n v="1187"/>
     <x v="0"/>
     <x v="15"/>
   </r>
   <r>
-    <s v="  $13d4-$1b62 Enemies Left"/>
+    <s v="  $13ec-$1baf Enemies Left"/>
     <x v="16"/>
-    <s v="13d4"/>
-    <s v="1b62"/>
-    <n v="5076"/>
-    <n v="7010"/>
-    <n v="1935"/>
+    <s v="13ec"/>
+    <s v="1baf"/>
+    <n v="5100"/>
+    <n v="7087"/>
+    <n v="1988"/>
     <x v="0"/>
     <x v="16"/>
   </r>
   <r>
-    <s v="  $1b63-$1e56 Maploader"/>
+    <s v="  $1bb0-$1e94 Maploader"/>
     <x v="17"/>
-    <s v="1b63"/>
-    <s v="1e56"/>
-    <n v="7011"/>
-    <n v="7766"/>
-    <n v="756"/>
+    <s v="1bb0"/>
+    <s v="1e94"/>
+    <n v="7088"/>
+    <n v="7828"/>
+    <n v="741"/>
     <x v="0"/>
     <x v="17"/>
   </r>
   <r>
-    <s v="  $1e57-$2226 WaveMovement"/>
+    <s v="  $1e95-$2264 WaveMovement"/>
     <x v="18"/>
-    <s v="1e57"/>
-    <s v="2226"/>
-    <n v="7767"/>
-    <n v="8742"/>
+    <s v="1e95"/>
+    <s v="2264"/>
+    <n v="7829"/>
+    <n v="8804"/>
     <n v="976"/>
     <x v="0"/>
     <x v="18"/>
   </r>
   <r>
-    <s v="  $2227-$25f2 WaveMovement Mirror"/>
+    <s v="  $2265-$2630 WaveMovement Mirror"/>
     <x v="19"/>
-    <s v="2227"/>
-    <s v="25f2"/>
-    <n v="8743"/>
-    <n v="9714"/>
+    <s v="2265"/>
+    <s v="2630"/>
+    <n v="8805"/>
+    <n v="9776"/>
     <n v="972"/>
     <x v="0"/>
     <x v="19"/>
   </r>
   <r>
-    <s v="  $25f3-$2672 XPaths"/>
+    <s v="  $2631-$26b0 XPaths"/>
     <x v="20"/>
-    <s v="25f3"/>
-    <s v="2672"/>
-    <n v="9715"/>
-    <n v="9842"/>
+    <s v="2631"/>
+    <s v="26b0"/>
+    <n v="9777"/>
+    <n v="9904"/>
     <n v="128"/>
     <x v="0"/>
     <x v="20"/>
   </r>
   <r>
-    <s v="  $2673-$26f2 YPaths"/>
+    <s v="  $26b1-$2730 YPaths"/>
     <x v="21"/>
-    <s v="2673"/>
-    <s v="26f2"/>
-    <n v="9843"/>
-    <n v="9970"/>
+    <s v="26b1"/>
+    <s v="2730"/>
+    <n v="9905"/>
+    <n v="10032"/>
     <n v="128"/>
     <x v="0"/>
     <x v="21"/>
   </r>
   <r>
-    <s v="  $26f3-$278a WaveStartPos"/>
+    <s v="  $2731-$27c8 WaveStartPos"/>
     <x v="22"/>
-    <s v="26f3"/>
-    <s v="278a"/>
-    <n v="9971"/>
-    <n v="10122"/>
+    <s v="2731"/>
+    <s v="27c8"/>
+    <n v="10033"/>
+    <n v="10184"/>
     <n v="152"/>
     <x v="0"/>
     <x v="22"/>
   </r>
   <r>
-    <s v="  $278b-$27f8 StagesIndex"/>
+    <s v="  $27c9-$2836 StagesIndex"/>
     <x v="23"/>
-    <s v="278b"/>
-    <s v="27f8"/>
-    <n v="10123"/>
-    <n v="10232"/>
+    <s v="27c9"/>
+    <s v="2836"/>
+    <n v="10185"/>
+    <n v="10294"/>
     <n v="110"/>
     <x v="0"/>
     <x v="23"/>
   </r>
   <r>
-    <s v="  $27f9-$31ff StagesIndexLookup"/>
+    <s v="  $2837-$294a StagesIndexLookup"/>
     <x v="24"/>
-    <s v="27f9"/>
-    <s v="31ff"/>
-    <n v="10233"/>
-    <n v="12799"/>
-    <n v="2567"/>
+    <s v="2837"/>
+    <s v="294a"/>
+    <n v="10295"/>
+    <n v="10570"/>
+    <n v="276"/>
     <x v="0"/>
     <x v="24"/>
   </r>
   <r>
+    <s v="  $294b-$31ff Challenge Paths 4-8"/>
+    <x v="25"/>
+    <s v="294b"/>
+    <s v="31ff"/>
+    <n v="10571"/>
+    <n v="12799"/>
+    <n v="2229"/>
+    <x v="0"/>
+    <x v="25"/>
+  </r>
+  <r>
     <s v="  $3200-$3288 VicSpriteTable"/>
-    <x v="25"/>
+    <x v="26"/>
     <s v="3200"/>
     <s v="3288"/>
     <n v="12800"/>
     <n v="12936"/>
     <n v="137"/>
     <x v="0"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <s v="  $3289-$3562 IRQ"/>
-    <x v="9"/>
-    <s v="3289"/>
-    <s v="3562"/>
-    <n v="12937"/>
-    <n v="13666"/>
-    <n v="730"/>
-    <x v="0"/>
     <x v="26"/>
   </r>
   <r>
-    <s v="  $3563-$35eb Enemy"/>
-    <x v="26"/>
-    <s v="3563"/>
-    <s v="35eb"/>
-    <n v="13667"/>
-    <n v="13803"/>
-    <n v="137"/>
+    <s v="  $3289-$357a IRQ"/>
+    <x v="9"/>
+    <s v="3289"/>
+    <s v="357a"/>
+    <n v="12937"/>
+    <n v="13690"/>
+    <n v="754"/>
     <x v="0"/>
     <x v="27"/>
   </r>
   <r>
-    <s v="  $35ec-$3663 Enemy Variables"/>
+    <s v="  $357b-$35fd Enemy"/>
     <x v="27"/>
-    <s v="35ec"/>
-    <s v="3663"/>
-    <n v="13804"/>
-    <n v="13923"/>
-    <n v="120"/>
+    <s v="357b"/>
+    <s v="35fd"/>
+    <n v="13691"/>
+    <n v="13821"/>
+    <n v="131"/>
     <x v="0"/>
     <x v="28"/>
   </r>
   <r>
-    <s v="  $3664-$36ab Plan"/>
+    <s v="  $35fe-$3675 Enemy Variables"/>
     <x v="28"/>
-    <s v="3664"/>
-    <s v="36ab"/>
-    <n v="13924"/>
-    <n v="13995"/>
-    <n v="72"/>
+    <s v="35fe"/>
+    <s v="3675"/>
+    <n v="13822"/>
+    <n v="13941"/>
+    <n v="120"/>
     <x v="0"/>
     <x v="29"/>
   </r>
   <r>
-    <s v="  $36ac-$36ec Extra"/>
+    <s v="  $3676-$36b1 Plan"/>
     <x v="29"/>
-    <s v="36ac"/>
-    <s v="36ec"/>
-    <n v="13996"/>
-    <n v="14060"/>
-    <n v="65"/>
+    <s v="3676"/>
+    <s v="36b1"/>
+    <n v="13942"/>
+    <n v="14001"/>
+    <n v="60"/>
     <x v="0"/>
     <x v="30"/>
   </r>
   <r>
-    <s v="  $36ed-$38d9 Enemies"/>
+    <s v="  $36b2-$36cf Extra"/>
     <x v="30"/>
-    <s v="36ed"/>
-    <s v="38d9"/>
-    <n v="14061"/>
-    <n v="14553"/>
-    <n v="493"/>
+    <s v="36b2"/>
+    <s v="36cf"/>
+    <n v="14002"/>
+    <n v="14031"/>
+    <n v="30"/>
     <x v="0"/>
     <x v="31"/>
   </r>
   <r>
-    <s v="  $38da-$3b05 Spawn"/>
+    <s v="  $36d0-$36f2 Enemy Ship ID"/>
     <x v="31"/>
-    <s v="38da"/>
-    <s v="3b05"/>
-    <n v="14554"/>
-    <n v="15109"/>
-    <n v="556"/>
+    <s v="36d0"/>
+    <s v="36f2"/>
+    <n v="14032"/>
+    <n v="14066"/>
+    <n v="35"/>
     <x v="0"/>
     <x v="32"/>
   </r>
   <r>
-    <s v="  $3b06-$4367 Pathfinding"/>
+    <s v="  $36f3-$38f0 Enemies"/>
     <x v="32"/>
-    <s v="3b06"/>
-    <s v="4367"/>
-    <n v="15110"/>
-    <n v="17255"/>
-    <n v="2146"/>
+    <s v="36f3"/>
+    <s v="38f0"/>
+    <n v="14067"/>
+    <n v="14576"/>
+    <n v="510"/>
     <x v="0"/>
     <x v="33"/>
   </r>
   <r>
-    <s v="  $4368-$46d8 Stage"/>
+    <s v="  $38f1-$3b19 Spawn"/>
     <x v="33"/>
-    <s v="4368"/>
-    <s v="46d8"/>
-    <n v="17256"/>
-    <n v="18136"/>
-    <n v="881"/>
+    <s v="38f1"/>
+    <s v="3b19"/>
+    <n v="14577"/>
+    <n v="15129"/>
+    <n v="553"/>
     <x v="0"/>
     <x v="34"/>
   </r>
   <r>
-    <s v="  $46d9-$478f Check Complete"/>
+    <s v="  $3b1a-$436d Pathfinding"/>
     <x v="34"/>
-    <s v="46d9"/>
-    <s v="478f"/>
-    <n v="18137"/>
-    <n v="18319"/>
-    <n v="183"/>
+    <s v="3b1a"/>
+    <s v="436d"/>
+    <n v="15130"/>
+    <n v="17261"/>
+    <n v="2132"/>
     <x v="0"/>
     <x v="35"/>
   </r>
   <r>
-    <s v="  $4790-$493c ---String Data"/>
+    <s v="  $436e-$46ed Stage"/>
     <x v="35"/>
-    <s v="4790"/>
-    <s v="493c"/>
-    <n v="18320"/>
-    <n v="18748"/>
-    <n v="429"/>
+    <s v="436e"/>
+    <s v="46ed"/>
+    <n v="17262"/>
+    <n v="18157"/>
+    <n v="896"/>
     <x v="0"/>
     <x v="36"/>
   </r>
   <r>
-    <s v="  $493d-$4a72 ---Text"/>
+    <s v="  $46ee-$47c6 Check Complete"/>
     <x v="36"/>
-    <s v="493d"/>
-    <s v="4a72"/>
-    <n v="18749"/>
-    <n v="19058"/>
-    <n v="310"/>
+    <s v="46ee"/>
+    <s v="47c6"/>
+    <n v="18158"/>
+    <n v="18374"/>
+    <n v="217"/>
     <x v="0"/>
     <x v="37"/>
   </r>
   <r>
-    <s v="  $4a73-$5718 Enemy Data"/>
+    <s v="  $47c7-$4a68 ---String Data"/>
     <x v="37"/>
-    <s v="4a73"/>
-    <s v="5718"/>
-    <n v="19059"/>
-    <n v="22296"/>
-    <n v="3238"/>
+    <s v="47c7"/>
+    <s v="4a68"/>
+    <n v="18375"/>
+    <n v="19048"/>
+    <n v="674"/>
     <x v="0"/>
     <x v="38"/>
   </r>
   <r>
-    <s v="  $5719-$5915 Title"/>
+    <s v="  $4a69-$4b9e ---Text"/>
     <x v="38"/>
-    <s v="5719"/>
-    <s v="5915"/>
-    <n v="22297"/>
-    <n v="22805"/>
-    <n v="509"/>
+    <s v="4a69"/>
+    <s v="4b9e"/>
+    <n v="19049"/>
+    <n v="19358"/>
+    <n v="310"/>
     <x v="0"/>
     <x v="39"/>
   </r>
   <r>
+    <s v="  $4b9f-$565e Enemy Data"/>
+    <x v="39"/>
+    <s v="4b9f"/>
+    <s v="565e"/>
+    <n v="19359"/>
+    <n v="22110"/>
+    <n v="2752"/>
+    <x v="0"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <s v="  $565f-$5857 Title"/>
+    <x v="40"/>
+    <s v="565f"/>
+    <s v="5857"/>
+    <n v="22111"/>
+    <n v="22615"/>
+    <n v="505"/>
+    <x v="0"/>
+    <x v="41"/>
+  </r>
+  <r>
     <s v="  $6000-$6be9 sid"/>
-    <x v="39"/>
+    <x v="41"/>
     <s v="6000"/>
     <s v="6be9"/>
     <n v="24576"/>
     <n v="27625"/>
     <n v="3050"/>
     <x v="0"/>
-    <x v="40"/>
+    <x v="42"/>
   </r>
   <r>
-    <s v="  $6c00-$6de8 Main"/>
-    <x v="40"/>
+    <s v="  $6c00-$6df9 Main"/>
+    <x v="42"/>
     <s v="6c00"/>
-    <s v="6de8"/>
+    <s v="6df9"/>
     <n v="27648"/>
-    <n v="28136"/>
-    <n v="489"/>
+    <n v="28153"/>
+    <n v="506"/>
     <x v="0"/>
-    <x v="41"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="  $7400-$7503 Game Map"/>
-    <x v="41"/>
+    <x v="43"/>
     <s v="7400"/>
     <s v="7503"/>
     <n v="29696"/>
     <n v="29955"/>
     <n v="260"/>
     <x v="0"/>
-    <x v="42"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="  $7504-$7627 Game Tiles"/>
-    <x v="42"/>
+    <x v="44"/>
     <s v="7504"/>
     <s v="7627"/>
     <n v="29956"/>
     <n v="30247"/>
     <n v="292"/>
     <x v="0"/>
-    <x v="43"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="  $7700-$77ff Game Colours"/>
-    <x v="43"/>
+    <x v="45"/>
     <s v="7700"/>
     <s v="77ff"/>
     <n v="30464"/>
     <n v="30719"/>
     <n v="256"/>
     <x v="0"/>
-    <x v="44"/>
+    <x v="46"/>
   </r>
   <r>
     <s v="  $7800-$7847 Logo"/>
-    <x v="44"/>
+    <x v="46"/>
     <s v="7800"/>
     <s v="7847"/>
     <n v="30720"/>
     <n v="30791"/>
     <n v="72"/>
     <x v="0"/>
-    <x v="45"/>
+    <x v="47"/>
   </r>
   <r>
     <s v="  $8000-$8147 Unnamed"/>
-    <x v="45"/>
+    <x v="47"/>
     <s v="8000"/>
     <s v="8147"/>
     <n v="32768"/>
     <n v="33095"/>
     <n v="328"/>
     <x v="0"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <s v="  $8148-$8453 Score"/>
-    <x v="46"/>
-    <s v="8148"/>
-    <s v="8453"/>
-    <n v="33096"/>
-    <n v="33875"/>
-    <n v="780"/>
-    <x v="0"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <s v="  $8454-$89b5 Bombs"/>
-    <x v="47"/>
-    <s v="8454"/>
-    <s v="89b5"/>
-    <n v="33876"/>
-    <n v="35253"/>
-    <n v="1378"/>
-    <x v="0"/>
     <x v="48"/>
   </r>
   <r>
-    <s v="  $89b6-$8b94 Lives"/>
+    <s v="  $8148-$849d Score"/>
     <x v="48"/>
-    <s v="89b6"/>
-    <s v="8b94"/>
-    <n v="35254"/>
-    <n v="35732"/>
-    <n v="479"/>
+    <s v="8148"/>
+    <s v="849d"/>
+    <n v="33096"/>
+    <n v="33949"/>
+    <n v="854"/>
     <x v="0"/>
     <x v="49"/>
   </r>
   <r>
-    <s v="  $8b95-$8e66 Pre-Stage"/>
+    <s v="  $849e-$89ff Bombs"/>
     <x v="49"/>
-    <s v="8b95"/>
-    <s v="8e66"/>
-    <n v="35733"/>
-    <n v="36454"/>
-    <n v="722"/>
+    <s v="849e"/>
+    <s v="89ff"/>
+    <n v="33950"/>
+    <n v="35327"/>
+    <n v="1378"/>
     <x v="0"/>
     <x v="50"/>
   </r>
   <r>
-    <s v="  $8e67-$8ec1 -Random"/>
+    <s v="  $8a00-$8bde Lives"/>
     <x v="50"/>
-    <s v="8e67"/>
-    <s v="8ec1"/>
-    <n v="36455"/>
-    <n v="36545"/>
-    <n v="91"/>
+    <s v="8a00"/>
+    <s v="8bde"/>
+    <n v="35328"/>
+    <n v="35806"/>
+    <n v="479"/>
     <x v="0"/>
     <x v="51"/>
   </r>
   <r>
-    <s v="  $8ec2-$8f86 -Plot"/>
+    <s v="  $8bdf-$8eb0 Pre-Stage"/>
     <x v="51"/>
-    <s v="8ec2"/>
-    <s v="8f86"/>
-    <n v="36546"/>
-    <n v="36742"/>
-    <n v="197"/>
+    <s v="8bdf"/>
+    <s v="8eb0"/>
+    <n v="35807"/>
+    <n v="36528"/>
+    <n v="722"/>
     <x v="0"/>
     <x v="52"/>
   </r>
   <r>
-    <s v="  $8f87-$91f2 STATS"/>
+    <s v="  $8eb1-$8f02 -Random"/>
     <x v="52"/>
-    <s v="8f87"/>
-    <s v="91f2"/>
-    <n v="36743"/>
-    <n v="37362"/>
-    <n v="620"/>
+    <s v="8eb1"/>
+    <s v="8f02"/>
+    <n v="36529"/>
+    <n v="36610"/>
+    <n v="82"/>
     <x v="0"/>
     <x v="53"/>
   </r>
   <r>
-    <s v="  $91f3-$91f4 GAME OVER"/>
+    <s v="  $8f03-$8fac -Plot"/>
     <x v="53"/>
-    <s v="91f3"/>
-    <s v="91f4"/>
-    <n v="37363"/>
-    <n v="37364"/>
-    <n v="2"/>
+    <s v="8f03"/>
+    <s v="8fac"/>
+    <n v="36611"/>
+    <n v="36780"/>
+    <n v="170"/>
     <x v="0"/>
     <x v="54"/>
   </r>
   <r>
-    <s v="  $91f5-$9219 "/>
+    <s v="  $8fad-$9218 STATS"/>
     <x v="54"/>
-    <s v="91f5"/>
-    <s v="9219"/>
-    <n v="37365"/>
-    <n v="37401"/>
-    <n v="37"/>
+    <s v="8fad"/>
+    <s v="9218"/>
+    <n v="36781"/>
+    <n v="37400"/>
+    <n v="620"/>
     <x v="0"/>
     <x v="55"/>
   </r>
   <r>
-    <s v="  $921a-$93ef DisplayGameOver"/>
+    <s v="  $9219-$921a GAME OVER"/>
     <x v="55"/>
+    <s v="9219"/>
     <s v="921a"/>
-    <s v="93ef"/>
+    <n v="37401"/>
     <n v="37402"/>
-    <n v="37871"/>
-    <n v="470"/>
+    <n v="2"/>
     <x v="0"/>
     <x v="56"/>
   </r>
   <r>
-    <s v="  $93f0-$99a3 BEAM"/>
+    <s v="  $921b-$923f "/>
     <x v="56"/>
-    <s v="93f0"/>
-    <s v="99a3"/>
-    <n v="37872"/>
-    <n v="39331"/>
-    <n v="1460"/>
+    <s v="921b"/>
+    <s v="923f"/>
+    <n v="37403"/>
+    <n v="37439"/>
+    <n v="37"/>
     <x v="0"/>
     <x v="57"/>
   </r>
   <r>
-    <s v="  $99a4-$9ee2 -Sound"/>
+    <s v="  $9240-$941a DisplayGameOver"/>
     <x v="57"/>
-    <s v="99a4"/>
-    <s v="9ee2"/>
-    <n v="39332"/>
-    <n v="40674"/>
-    <n v="1343"/>
+    <s v="9240"/>
+    <s v="941a"/>
+    <n v="37440"/>
+    <n v="37914"/>
+    <n v="475"/>
     <x v="0"/>
     <x v="58"/>
   </r>
   <r>
-    <s v="  $9ee3-$9f2d Attacks"/>
+    <s v="  $941b-$99d3 BEAM"/>
     <x v="58"/>
-    <s v="9ee3"/>
-    <s v="9f2d"/>
-    <n v="40675"/>
-    <n v="40749"/>
-    <n v="75"/>
+    <s v="941b"/>
+    <s v="99d3"/>
+    <n v="37915"/>
+    <n v="39379"/>
+    <n v="1465"/>
     <x v="0"/>
     <x v="59"/>
   </r>
   <r>
-    <s v="  $9f2e-$a340 Attackers"/>
+    <s v="  $99d4-$9f16 -Sound"/>
     <x v="59"/>
-    <s v="9f2e"/>
-    <s v="a340"/>
-    <n v="40750"/>
-    <n v="41792"/>
-    <n v="1043"/>
+    <s v="99d4"/>
+    <s v="9f16"/>
+    <n v="39380"/>
+    <n v="40726"/>
+    <n v="1347"/>
     <x v="0"/>
     <x v="60"/>
   </r>
   <r>
+    <s v="  $9f17-$9f61 Attacks"/>
+    <x v="60"/>
+    <s v="9f17"/>
+    <s v="9f61"/>
+    <n v="40727"/>
+    <n v="40801"/>
+    <n v="75"/>
+    <x v="0"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <s v="  $9f62-$a374 Attackers"/>
+    <x v="61"/>
+    <s v="9f62"/>
+    <s v="a374"/>
+    <n v="40802"/>
+    <n v="41844"/>
+    <n v="1043"/>
+    <x v="0"/>
+    <x v="62"/>
+  </r>
+  <r>
     <s v="  $a400-$a5ff Game ZP Backup"/>
-    <x v="60"/>
+    <x v="62"/>
     <s v="a400"/>
     <s v="a5ff"/>
     <n v="41984"/>
     <n v="42495"/>
     <n v="512"/>
     <x v="0"/>
-    <x v="61"/>
+    <x v="63"/>
   </r>
   <r>
     <s v="  $a800-$bfff Sprites Source"/>
-    <x v="61"/>
+    <x v="63"/>
     <s v="a800"/>
     <s v="bfff"/>
     <n v="43008"/>
     <n v="49151"/>
     <n v="6144"/>
     <x v="0"/>
-    <x v="62"/>
+    <x v="64"/>
   </r>
   <r>
-    <s v="  $c400-$e47f Sprites"/>
-    <x v="62"/>
+    <s v="  $c400-$e4bf Sprites"/>
+    <x v="64"/>
     <s v="c400"/>
-    <s v="e47f"/>
+    <s v="e4bf"/>
     <n v="50176"/>
-    <n v="58495"/>
-    <n v="8320"/>
+    <n v="58559"/>
+    <n v="8384"/>
     <x v="0"/>
-    <x v="63"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="  $f000-$f7ff Charset"/>
-    <x v="63"/>
+    <x v="65"/>
     <s v="f000"/>
     <s v="f7ff"/>
     <n v="61440"/>
     <n v="63487"/>
     <n v="2048"/>
     <x v="0"/>
-    <x v="64"/>
+    <x v="66"/>
   </r>
   <r>
     <s v="  $f800-$f7ff Unnamed"/>
-    <x v="45"/>
+    <x v="47"/>
     <s v="f800"/>
     <s v="f7ff"/>
     <n v="63488"/>
     <n v="63487"/>
     <n v="0"/>
     <x v="0"/>
-    <x v="65"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="  $f800-$f829 High Scores"/>
-    <x v="64"/>
+    <x v="66"/>
     <s v="f800"/>
     <s v="f829"/>
     <n v="63488"/>
     <n v="63529"/>
     <n v="42"/>
     <x v="0"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <s v="  $f82a-$fc50 Position"/>
-    <x v="65"/>
-    <s v="f82a"/>
-    <s v="fc50"/>
-    <n v="63530"/>
-    <n v="64592"/>
-    <n v="1063"/>
-    <x v="0"/>
-    <x v="67"/>
-  </r>
-  <r>
-    <m/>
-    <x v="66"/>
-    <s v=""/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
     <x v="68"/>
   </r>
   <r>
-    <m/>
-    <x v="66"/>
-    <s v=""/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="  $f82a-$fc5f Position"/>
+    <x v="67"/>
+    <s v="f82a"/>
+    <s v="fc5f"/>
+    <n v="63530"/>
+    <n v="64607"/>
+    <n v="1078"/>
     <x v="0"/>
     <x v="69"/>
   </r>
   <r>
-    <m/>
-    <x v="66"/>
-    <s v=""/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="  $fc60-$fc8f Demo"/>
+    <x v="68"/>
+    <s v="fc60"/>
+    <s v="fc8f"/>
+    <n v="64608"/>
+    <n v="64655"/>
+    <n v="48"/>
     <x v="0"/>
     <x v="70"/>
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1876,7 +1875,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1887,7 +1886,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1898,7 +1897,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1909,7 +1908,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1920,7 +1919,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1931,7 +1930,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1942,7 +1941,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1953,7 +1952,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1964,7 +1963,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1975,7 +1974,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1986,7 +1985,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -1997,7 +1996,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2008,7 +2007,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2019,7 +2018,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2030,7 +2029,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2041,7 +2040,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2052,7 +2051,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2063,7 +2062,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2074,7 +2073,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2085,7 +2084,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2096,7 +2095,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2107,7 +2106,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2118,7 +2117,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2129,7 +2128,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2140,7 +2139,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2151,7 +2150,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2162,7 +2161,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2173,7 +2172,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2184,7 +2183,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2195,7 +2194,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2206,7 +2205,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2217,7 +2216,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2228,7 +2227,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2239,7 +2238,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2250,7 +2249,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2261,7 +2260,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2272,7 +2271,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2283,7 +2282,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2294,7 +2293,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2305,7 +2304,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2316,7 +2315,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2327,7 +2326,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2338,7 +2337,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2349,7 +2348,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2360,7 +2359,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2371,7 +2370,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2382,7 +2381,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2393,7 +2392,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2404,7 +2403,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2415,7 +2414,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2426,7 +2425,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2437,7 +2436,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2448,7 +2447,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2459,7 +2458,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2470,7 +2469,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2481,7 +2480,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2492,7 +2491,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2503,7 +2502,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2514,7 +2513,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2525,7 +2524,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2536,7 +2535,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2547,7 +2546,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2558,7 +2557,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2569,7 +2568,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2580,7 +2579,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2591,7 +2590,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2602,7 +2601,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2613,7 +2612,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2624,7 +2623,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2635,7 +2634,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2646,7 +2645,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2657,7 +2656,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2668,7 +2667,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2679,7 +2678,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2690,7 +2689,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2701,7 +2700,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2712,7 +2711,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2723,7 +2722,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2734,7 +2733,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2745,7 +2744,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2756,7 +2755,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2767,7 +2766,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2778,7 +2777,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2789,7 +2788,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2800,7 +2799,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2811,7 +2810,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2822,7 +2821,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2833,7 +2832,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2844,7 +2843,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2855,7 +2854,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2866,7 +2865,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2877,7 +2876,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2888,7 +2887,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2899,7 +2898,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2910,7 +2909,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2921,7 +2920,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2932,7 +2931,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2943,7 +2942,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2954,7 +2953,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2965,7 +2964,7 @@
   </r>
   <r>
     <m/>
-    <x v="67"/>
+    <x v="70"/>
     <s v=""/>
     <s v=""/>
     <n v="0"/>
@@ -2976,18 +2975,18 @@
   </r>
   <r>
     <m/>
-    <x v="68"/>
+    <x v="71"/>
     <m/>
     <m/>
     <m/>
     <m/>
-    <n v="13070"/>
+    <n v="13063"/>
     <x v="0"/>
     <x v="172"/>
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <m/>
     <m/>
     <m/>
@@ -2998,7 +2997,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <m/>
     <m/>
     <m/>
@@ -3009,7 +3008,7 @@
   </r>
   <r>
     <m/>
-    <x v="66"/>
+    <x v="69"/>
     <m/>
     <m/>
     <m/>
@@ -3022,144 +3021,144 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C109" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="191">
-        <item m="1" x="69"/>
-        <item m="1" x="169"/>
+      <items count="194">
+        <item m="1" x="73"/>
+        <item m="1" x="147"/>
         <item x="5"/>
         <item x="6"/>
+        <item m="1" x="186"/>
+        <item m="1" x="93"/>
+        <item m="1" x="113"/>
+        <item m="1" x="131"/>
+        <item m="1" x="86"/>
+        <item m="1" x="81"/>
+        <item m="1" x="134"/>
+        <item m="1" x="118"/>
+        <item m="1" x="175"/>
+        <item m="1" x="137"/>
+        <item m="1" x="121"/>
+        <item m="1" x="151"/>
+        <item m="1" x="153"/>
+        <item m="1" x="167"/>
+        <item m="1" x="123"/>
+        <item m="1" x="103"/>
+        <item n="Name" m="1" x="160"/>
+        <item m="1" x="106"/>
+        <item m="1" x="184"/>
+        <item m="1" x="143"/>
+        <item m="1" x="159"/>
+        <item m="1" x="178"/>
+        <item m="1" x="180"/>
+        <item m="1" x="191"/>
+        <item m="1" x="119"/>
+        <item m="1" x="78"/>
+        <item m="1" x="114"/>
+        <item m="1" x="168"/>
         <item m="1" x="133"/>
+        <item m="1" x="169"/>
+        <item m="1" x="110"/>
+        <item m="1" x="96"/>
+        <item m="1" x="174"/>
+        <item m="1" x="111"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item m="1" x="146"/>
+        <item m="1" x="173"/>
+        <item m="1" x="92"/>
+        <item m="1" x="179"/>
+        <item m="1" x="115"/>
+        <item m="1" x="192"/>
+        <item m="1" x="162"/>
+        <item m="1" x="88"/>
+        <item m="1" x="109"/>
+        <item x="42"/>
+        <item m="1" x="124"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item m="1" x="100"/>
+        <item m="1" x="145"/>
+        <item m="1" x="138"/>
+        <item m="1" x="130"/>
+        <item m="1" x="183"/>
+        <item x="47"/>
+        <item m="1" x="104"/>
+        <item m="1" x="188"/>
+        <item m="1" x="82"/>
+        <item x="0"/>
+        <item m="1" x="189"/>
+        <item m="1" x="154"/>
+        <item m="1" x="84"/>
+        <item m="1" x="185"/>
+        <item m="1" x="171"/>
         <item m="1" x="166"/>
-        <item m="1" x="104"/>
+        <item m="1" x="135"/>
+        <item m="1" x="122"/>
+        <item m="1" x="117"/>
+        <item m="1" x="176"/>
+        <item m="1" x="90"/>
+        <item m="1" x="76"/>
+        <item m="1" x="77"/>
+        <item m="1" x="158"/>
+        <item m="1" x="141"/>
+        <item m="1" x="129"/>
+        <item m="1" x="190"/>
+        <item m="1" x="157"/>
+        <item m="1" x="74"/>
+        <item m="1" x="152"/>
+        <item m="1" x="136"/>
+        <item m="1" x="107"/>
+        <item m="1" x="95"/>
+        <item m="1" x="150"/>
+        <item m="1" x="126"/>
+        <item m="1" x="80"/>
+        <item m="1" x="125"/>
+        <item m="1" x="172"/>
+        <item m="1" x="79"/>
         <item m="1" x="89"/>
+        <item m="1" x="182"/>
+        <item m="1" x="116"/>
         <item m="1" x="149"/>
-        <item m="1" x="92"/>
+        <item m="1" x="83"/>
+        <item m="1" x="156"/>
+        <item m="1" x="75"/>
+        <item m="1" x="97"/>
+        <item m="1" x="99"/>
+        <item m="1" x="105"/>
+        <item m="1" x="127"/>
+        <item m="1" x="120"/>
+        <item m="1" x="139"/>
+        <item m="1" x="101"/>
+        <item m="1" x="155"/>
+        <item m="1" x="177"/>
+        <item x="56"/>
+        <item m="1" x="142"/>
+        <item m="1" x="112"/>
+        <item m="1" x="91"/>
+        <item m="1" x="148"/>
+        <item m="1" x="128"/>
+        <item m="1" x="164"/>
+        <item m="1" x="85"/>
+        <item m="1" x="170"/>
+        <item m="1" x="72"/>
+        <item m="1" x="187"/>
+        <item m="1" x="108"/>
+        <item m="1" x="94"/>
+        <item m="1" x="87"/>
+        <item m="1" x="132"/>
+        <item m="1" x="98"/>
+        <item m="1" x="161"/>
+        <item m="1" x="140"/>
+        <item m="1" x="144"/>
+        <item m="1" x="165"/>
         <item m="1" x="102"/>
-        <item m="1" x="115"/>
-        <item m="1" x="117"/>
-        <item m="1" x="107"/>
-        <item m="1" x="111"/>
-        <item m="1" x="164"/>
-        <item m="1" x="167"/>
-        <item m="1" x="154"/>
-        <item m="1" x="77"/>
-        <item m="1" x="87"/>
-        <item n="Name" m="1" x="80"/>
-        <item m="1" x="97"/>
-        <item m="1" x="121"/>
-        <item m="1" x="98"/>
-        <item m="1" x="134"/>
-        <item m="1" x="139"/>
-        <item m="1" x="88"/>
-        <item m="1" x="113"/>
-        <item m="1" x="148"/>
-        <item m="1" x="84"/>
-        <item m="1" x="152"/>
-        <item m="1" x="103"/>
-        <item m="1" x="79"/>
-        <item m="1" x="158"/>
-        <item m="1" x="161"/>
-        <item m="1" x="170"/>
-        <item x="0"/>
+        <item m="1" x="181"/>
         <item m="1" x="163"/>
-        <item x="66"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item m="1" x="136"/>
-        <item m="1" x="101"/>
-        <item m="1" x="141"/>
-        <item m="1" x="106"/>
-        <item m="1" x="120"/>
-        <item m="1" x="78"/>
-        <item m="1" x="131"/>
-        <item m="1" x="112"/>
-        <item m="1" x="96"/>
-        <item x="40"/>
-        <item m="1" x="129"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item m="1" x="155"/>
-        <item m="1" x="189"/>
-        <item m="1" x="177"/>
-        <item m="1" x="116"/>
-        <item m="1" x="105"/>
-        <item x="45"/>
-        <item m="1" x="70"/>
-        <item m="1" x="74"/>
-        <item m="1" x="153"/>
-        <item m="1" x="159"/>
-        <item m="1" x="108"/>
-        <item m="1" x="83"/>
-        <item m="1" x="144"/>
-        <item m="1" x="178"/>
-        <item m="1" x="85"/>
-        <item m="1" x="123"/>
-        <item m="1" x="151"/>
-        <item m="1" x="143"/>
-        <item m="1" x="75"/>
-        <item m="1" x="179"/>
-        <item m="1" x="130"/>
-        <item m="1" x="174"/>
-        <item m="1" x="172"/>
-        <item m="1" x="71"/>
-        <item m="1" x="160"/>
-        <item m="1" x="173"/>
-        <item m="1" x="99"/>
-        <item m="1" x="165"/>
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="182"/>
-        <item m="1" x="81"/>
-        <item m="1" x="157"/>
-        <item m="1" x="137"/>
-        <item m="1" x="188"/>
-        <item m="1" x="90"/>
-        <item m="1" x="82"/>
-        <item m="1" x="142"/>
-        <item m="1" x="187"/>
-        <item m="1" x="147"/>
-        <item m="1" x="118"/>
-        <item m="1" x="180"/>
-        <item m="1" x="150"/>
-        <item m="1" x="168"/>
-        <item m="1" x="183"/>
-        <item m="1" x="94"/>
-        <item m="1" x="122"/>
-        <item m="1" x="126"/>
-        <item m="1" x="162"/>
-        <item m="1" x="132"/>
-        <item m="1" x="95"/>
-        <item m="1" x="110"/>
-        <item m="1" x="100"/>
-        <item m="1" x="119"/>
-        <item m="1" x="125"/>
-        <item x="54"/>
-        <item m="1" x="72"/>
-        <item m="1" x="124"/>
-        <item m="1" x="146"/>
-        <item m="1" x="91"/>
-        <item m="1" x="176"/>
-        <item m="1" x="140"/>
-        <item m="1" x="135"/>
-        <item m="1" x="171"/>
-        <item m="1" x="186"/>
-        <item m="1" x="138"/>
-        <item m="1" x="184"/>
-        <item m="1" x="156"/>
-        <item m="1" x="181"/>
-        <item m="1" x="86"/>
-        <item m="1" x="73"/>
-        <item m="1" x="114"/>
-        <item m="1" x="175"/>
-        <item m="1" x="109"/>
-        <item m="1" x="185"/>
-        <item m="1" x="93"/>
-        <item m="1" x="145"/>
-        <item m="1" x="76"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
@@ -3167,10 +3166,10 @@
         <item x="12"/>
         <item x="13"/>
         <item x="15"/>
-        <item x="39"/>
+        <item x="41"/>
         <item x="17"/>
-        <item x="51"/>
-        <item x="50"/>
+        <item x="53"/>
+        <item x="52"/>
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
@@ -3178,27 +3177,27 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
-        <item x="25"/>
-        <item x="30"/>
-        <item x="47"/>
+        <item x="26"/>
+        <item x="32"/>
         <item x="49"/>
+        <item x="51"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
         <item x="46"/>
-        <item x="48"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="57"/>
         <item x="58"/>
         <item x="59"/>
-        <item x="37"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="61"/>
-        <item x="62"/>
         <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -3206,18 +3205,21 @@
         <item x="7"/>
         <item x="14"/>
         <item x="16"/>
-        <item x="26"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
-        <item x="31"/>
-        <item x="32"/>
+        <item x="30"/>
         <item x="33"/>
         <item x="34"/>
-        <item x="38"/>
-        <item x="60"/>
-        <item x="64"/>
-        <item x="65"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="40"/>
+        <item x="62"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3409,8 +3411,8 @@
         <item x="169"/>
         <item x="170"/>
         <item x="171"/>
+        <item m="1" x="175"/>
         <item m="1" x="174"/>
-        <item m="1" x="175"/>
         <item x="173"/>
       </items>
     </pivotField>
@@ -3426,7 +3428,7 @@
     </i>
     <i>
       <x v="1"/>
-      <x v="36"/>
+      <x v="63"/>
     </i>
     <i>
       <x v="2"/>
@@ -3526,187 +3528,187 @@
     </i>
     <i>
       <x v="26"/>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="27"/>
       <x v="150"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="28"/>
       <x v="133"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="29"/>
       <x v="178"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="30"/>
       <x v="179"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="31"/>
       <x v="180"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="32"/>
       <x v="181"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="33"/>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="34"/>
       <x v="151"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="35"/>
       <x v="182"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="36"/>
       <x v="183"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="37"/>
       <x v="184"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="38"/>
       <x v="185"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="39"/>
       <x v="52"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="40"/>
       <x v="53"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="41"/>
       <x v="158"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="42"/>
       <x v="186"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="43"/>
       <x v="139"/>
     </i>
     <i>
-      <x v="42"/>
+      <x v="44"/>
       <x v="50"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="45"/>
       <x v="159"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="46"/>
       <x v="160"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="47"/>
       <x v="161"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="48"/>
       <x v="162"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="49"/>
       <x v="59"/>
     </i>
     <i>
-      <x v="48"/>
+      <x v="50"/>
       <x v="154"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="51"/>
       <x v="152"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="52"/>
       <x v="155"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="53"/>
       <x v="153"/>
     </i>
     <i>
-      <x v="52"/>
+      <x v="54"/>
       <x v="142"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="55"/>
       <x v="141"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="56"/>
       <x v="163"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="57"/>
       <x v="164"/>
     </i>
     <i>
-      <x v="56"/>
+      <x v="58"/>
       <x v="109"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="59"/>
       <x v="165"/>
     </i>
     <i>
-      <x v="58"/>
+      <x v="60"/>
       <x v="166"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="61"/>
       <x v="167"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="62"/>
       <x v="156"/>
     </i>
     <i>
-      <x v="61"/>
+      <x v="63"/>
       <x v="157"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="64"/>
       <x v="187"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="65"/>
       <x v="168"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="66"/>
       <x v="169"/>
     </i>
     <i>
-      <x v="65"/>
+      <x v="67"/>
       <x v="170"/>
     </i>
     <i>
-      <x v="66"/>
+      <x v="68"/>
       <x v="59"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="69"/>
       <x v="188"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="70"/>
       <x v="189"/>
     </i>
     <i>
-      <x v="69"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="70"/>
-      <x v="38"/>
-    </i>
-    <i>
       <x v="71"/>
-      <x v="38"/>
+      <x v="192"/>
     </i>
     <i>
       <x v="72"/>
@@ -3850,13 +3852,13 @@
     <dataField name="Sum of Used" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -4155,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4213,11 +4215,11 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B2" t="str">
         <f>RIGHT(A2,LEN(A2)-13)</f>
-        <v>Temp vars zero page</v>
+        <v xml:space="preserve"> Temp vars zero page</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISERROR(FIND("*",$A2,1)),MID($A2,4,4),MID(TRIM($A2),3,4))</f>
@@ -4225,7 +4227,7 @@
       </c>
       <c r="D2" t="str">
         <f>IF(ISERROR(FIND("*",$A2,1)),MID($A2,10,4),MID(TRIM($A2),9,4))</f>
-        <v>0020</v>
+        <v>0021</v>
       </c>
       <c r="E2">
         <f>HEX2DEC(C2)</f>
@@ -4233,11 +4235,11 @@
       </c>
       <c r="F2">
         <f>HEX2DEC(D2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <f>IF(F2&gt;0,F2-E2+1,0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="b">
         <f>IF(B2="",FALSE,TRUE)</f>
@@ -4257,7 +4259,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B3" t="str">
         <f>RIGHT(A3,LEN(A3)-14)</f>
@@ -4265,19 +4267,19 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">IF(ISERROR(FIND("*",$A3,1)),MID($A3,4,4),MID(TRIM($A3),3,4))</f>
-        <v>0021</v>
+        <v>0022</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="1">IF(ISERROR(FIND("*",$A3,1)),MID($A3,10,4),MID(TRIM($A3),9,4))</f>
-        <v>0031</v>
+        <v>0032</v>
       </c>
       <c r="E3">
         <f>HEX2DEC(C3)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <f>HEX2DEC(D3)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G61" si="2">IF(F3&gt;0,F3-E3+1,0)</f>
@@ -4292,16 +4294,16 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="3">IF(E4&gt;0,E4-F3-1,0)</f>
+        <f t="shared" ref="K3:K64" si="3">IF(E4&gt;0,E4-F3-1,0)</f>
         <v>0</v>
       </c>
       <c r="L3">
         <f>F3</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="str">
         <f>DEC2HEX(L3,4)</f>
-        <v>0031</v>
+        <v>0032</v>
       </c>
       <c r="N3" t="b">
         <f t="shared" ref="N3:N66" si="4">K3&gt;0</f>
@@ -4310,7 +4312,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B67" si="5">RIGHT(A4,LEN(A4)-14)</f>
@@ -4318,19 +4320,19 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0032</v>
+        <v>0033</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
-        <v>0045</v>
+        <v>0046</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E42" si="6">HEX2DEC(C4)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F42" si="7">HEX2DEC(D4)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -4350,11 +4352,11 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L67" si="10">F4</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="str">
         <f>DEC2HEX(L4,4)</f>
-        <v>0045</v>
+        <v>0046</v>
       </c>
       <c r="N4" t="b">
         <f t="shared" si="4"/>
@@ -4367,7 +4369,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="5"/>
@@ -4375,19 +4377,19 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0046</v>
+        <v>0047</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
-        <v>00a9</v>
+        <v>00aa</v>
       </c>
       <c r="E5">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -4407,11 +4409,11 @@
       </c>
       <c r="L5">
         <f t="shared" si="10"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M68" si="11">DEC2HEX(L5,4)</f>
-        <v>00A9</v>
+        <v>00AA</v>
       </c>
       <c r="N5" t="b">
         <f t="shared" si="4"/>
@@ -4420,7 +4422,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="5"/>
@@ -4428,19 +4430,19 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>00aa</v>
+        <v>00ab</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>00d8</v>
+        <v>00d9</v>
       </c>
       <c r="E6">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -4456,15 +4458,15 @@
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="L6">
         <f t="shared" si="10"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="11"/>
-        <v>00D8</v>
+        <v>00D9</v>
       </c>
       <c r="N6" t="b">
         <f t="shared" si="4"/>
@@ -4583,7 +4585,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="5"/>
@@ -4636,7 +4638,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="5"/>
@@ -4699,7 +4701,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="5"/>
@@ -4711,7 +4713,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>09d7</v>
+        <v>09e1</v>
       </c>
       <c r="E11">
         <f t="shared" si="6"/>
@@ -4719,11 +4721,11 @@
       </c>
       <c r="F11">
         <f t="shared" si="7"/>
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H11" t="b">
         <f t="shared" si="8"/>
@@ -4739,11 +4741,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="10"/>
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="11"/>
-        <v>09D7</v>
+        <v>09E1</v>
       </c>
       <c r="N11" t="b">
         <f t="shared" si="4"/>
@@ -4763,7 +4765,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="5"/>
@@ -4771,23 +4773,23 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>09d8</v>
+        <v>09e2</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>0a0f</v>
+        <v>0a2d</v>
       </c>
       <c r="E12">
         <f t="shared" si="6"/>
-        <v>2520</v>
+        <v>2530</v>
       </c>
       <c r="F12">
         <f t="shared" si="7"/>
-        <v>2575</v>
+        <v>2605</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H12" t="b">
         <f t="shared" si="8"/>
@@ -4803,11 +4805,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>2575</v>
+        <v>2605</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="11"/>
-        <v>0A0F</v>
+        <v>0A2D</v>
       </c>
       <c r="N12" t="b">
         <f t="shared" si="4"/>
@@ -4827,7 +4829,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="5"/>
@@ -4835,19 +4837,19 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>0a10</v>
+        <v>0a2e</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>0a2c</v>
+        <v>0a4a</v>
       </c>
       <c r="E13">
         <f t="shared" si="6"/>
-        <v>2576</v>
+        <v>2606</v>
       </c>
       <c r="F13">
         <f t="shared" si="7"/>
-        <v>2604</v>
+        <v>2634</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -4867,11 +4869,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="10"/>
-        <v>2604</v>
+        <v>2634</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="11"/>
-        <v>0A2C</v>
+        <v>0A4A</v>
       </c>
       <c r="N13" t="b">
         <f t="shared" si="4"/>
@@ -4891,7 +4893,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="5"/>
@@ -4899,19 +4901,19 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>0a2d</v>
+        <v>0a4b</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>0aca</v>
+        <v>0ae8</v>
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
-        <v>2605</v>
+        <v>2635</v>
       </c>
       <c r="F14">
         <f t="shared" si="7"/>
-        <v>2762</v>
+        <v>2792</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -4931,11 +4933,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="10"/>
-        <v>2762</v>
+        <v>2792</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="11"/>
-        <v>0ACA</v>
+        <v>0AE8</v>
       </c>
       <c r="N14" t="b">
         <f t="shared" si="4"/>
@@ -4955,7 +4957,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="5"/>
@@ -4963,23 +4965,23 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>0acb</v>
+        <v>0ae9</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>0e96</v>
+        <v>0eae</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>2763</v>
+        <v>2793</v>
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>3734</v>
+        <v>3758</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="H15" t="b">
         <f t="shared" si="8"/>
@@ -4995,11 +4997,11 @@
       </c>
       <c r="L15">
         <f t="shared" si="10"/>
-        <v>3734</v>
+        <v>3758</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="11"/>
-        <v>0E96</v>
+        <v>0EAE</v>
       </c>
       <c r="N15" t="b">
         <f t="shared" si="4"/>
@@ -5019,7 +5021,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="5"/>
@@ -5027,19 +5029,19 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>0e97</v>
+        <v>0eaf</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>0f30</v>
+        <v>0f48</v>
       </c>
       <c r="E16">
         <f t="shared" si="6"/>
-        <v>3735</v>
+        <v>3759</v>
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
-        <v>3888</v>
+        <v>3912</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -5059,11 +5061,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="10"/>
-        <v>3888</v>
+        <v>3912</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="11"/>
-        <v>0F30</v>
+        <v>0F48</v>
       </c>
       <c r="N16" t="b">
         <f t="shared" si="4"/>
@@ -5083,7 +5085,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="5"/>
@@ -5091,19 +5093,19 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>0f31</v>
+        <v>0f49</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>13d3</v>
+        <v>13eb</v>
       </c>
       <c r="E17">
         <f t="shared" si="6"/>
-        <v>3889</v>
+        <v>3913</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>5075</v>
+        <v>5099</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -5123,11 +5125,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="10"/>
-        <v>5075</v>
+        <v>5099</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="11"/>
-        <v>13D3</v>
+        <v>13EB</v>
       </c>
       <c r="N17" t="b">
         <f t="shared" si="4"/>
@@ -5147,7 +5149,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="5"/>
@@ -5155,23 +5157,23 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>13d4</v>
+        <v>13ec</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>1b62</v>
+        <v>1baf</v>
       </c>
       <c r="E18">
         <f t="shared" si="6"/>
-        <v>5076</v>
+        <v>5100</v>
       </c>
       <c r="F18">
         <f t="shared" si="7"/>
-        <v>7010</v>
+        <v>7087</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1935</v>
+        <v>1988</v>
       </c>
       <c r="H18" t="b">
         <f t="shared" si="8"/>
@@ -5187,11 +5189,11 @@
       </c>
       <c r="L18">
         <f t="shared" si="10"/>
-        <v>7010</v>
+        <v>7087</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="11"/>
-        <v>1B62</v>
+        <v>1BAF</v>
       </c>
       <c r="N18" t="b">
         <f t="shared" si="4"/>
@@ -5211,7 +5213,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="5"/>
@@ -5219,23 +5221,23 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>1b63</v>
+        <v>1bb0</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
-        <v>1e56</v>
+        <v>1e94</v>
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>7011</v>
+        <v>7088</v>
       </c>
       <c r="F19">
         <f t="shared" si="7"/>
-        <v>7766</v>
+        <v>7828</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="H19" t="b">
         <f t="shared" si="8"/>
@@ -5251,11 +5253,11 @@
       </c>
       <c r="L19">
         <f t="shared" si="10"/>
-        <v>7766</v>
+        <v>7828</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="11"/>
-        <v>1E56</v>
+        <v>1E94</v>
       </c>
       <c r="N19" t="b">
         <f t="shared" si="4"/>
@@ -5275,7 +5277,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="5"/>
@@ -5283,19 +5285,19 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>1e57</v>
+        <v>1e95</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>2226</v>
+        <v>2264</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>7767</v>
+        <v>7829</v>
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
-        <v>8742</v>
+        <v>8804</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -5315,11 +5317,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="10"/>
-        <v>8742</v>
+        <v>8804</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="11"/>
-        <v>2226</v>
+        <v>2264</v>
       </c>
       <c r="N20" t="b">
         <f t="shared" si="4"/>
@@ -5339,7 +5341,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="5"/>
@@ -5347,19 +5349,19 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>2227</v>
+        <v>2265</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
-        <v>25f2</v>
+        <v>2630</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>8743</v>
+        <v>8805</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>9714</v>
+        <v>9776</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -5379,11 +5381,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="10"/>
-        <v>9714</v>
+        <v>9776</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="11"/>
-        <v>25F2</v>
+        <v>2630</v>
       </c>
       <c r="N21" t="b">
         <f t="shared" si="4"/>
@@ -5403,7 +5405,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="5"/>
@@ -5411,19 +5413,19 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>25f3</v>
+        <v>2631</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>2672</v>
+        <v>26b0</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>9715</v>
+        <v>9777</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>9842</v>
+        <v>9904</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -5443,11 +5445,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="10"/>
-        <v>9842</v>
+        <v>9904</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="11"/>
-        <v>2672</v>
+        <v>26B0</v>
       </c>
       <c r="N22" t="b">
         <f t="shared" si="4"/>
@@ -5467,7 +5469,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="5"/>
@@ -5475,19 +5477,19 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>2673</v>
+        <v>26b1</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
-        <v>26f2</v>
+        <v>2730</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>9843</v>
+        <v>9905</v>
       </c>
       <c r="F23">
         <f t="shared" si="7"/>
-        <v>9970</v>
+        <v>10032</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -5507,11 +5509,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="10"/>
-        <v>9970</v>
+        <v>10032</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="11"/>
-        <v>26F2</v>
+        <v>2730</v>
       </c>
       <c r="N23" t="b">
         <f t="shared" si="4"/>
@@ -5531,7 +5533,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="5"/>
@@ -5539,19 +5541,19 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>26f3</v>
+        <v>2731</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
-        <v>278a</v>
+        <v>27c8</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>9971</v>
+        <v>10033</v>
       </c>
       <c r="F24">
         <f t="shared" si="7"/>
-        <v>10122</v>
+        <v>10184</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -5571,11 +5573,11 @@
       </c>
       <c r="L24">
         <f t="shared" si="10"/>
-        <v>10122</v>
+        <v>10184</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="11"/>
-        <v>278A</v>
+        <v>27C8</v>
       </c>
       <c r="N24" t="b">
         <f t="shared" si="4"/>
@@ -5595,7 +5597,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="5"/>
@@ -5603,19 +5605,19 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>278b</v>
+        <v>27c9</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v>27f8</v>
+        <v>2836</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>10123</v>
+        <v>10185</v>
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
-        <v>10232</v>
+        <v>10294</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -5635,11 +5637,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="10"/>
-        <v>10232</v>
+        <v>10294</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="11"/>
-        <v>27F8</v>
+        <v>2836</v>
       </c>
       <c r="N25" t="b">
         <f t="shared" si="4"/>
@@ -5659,7 +5661,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="5"/>
@@ -5667,23 +5669,23 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>27f9</v>
+        <v>2837</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>31ff</v>
+        <v>294a</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>10233</v>
+        <v>10295</v>
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>12799</v>
+        <v>10570</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2567</v>
+        <v>276</v>
       </c>
       <c r="H26" t="b">
         <f t="shared" si="8"/>
@@ -5699,11 +5701,11 @@
       </c>
       <c r="L26">
         <f t="shared" si="10"/>
-        <v>12799</v>
+        <v>10570</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="11"/>
-        <v>31FF</v>
+        <v>294A</v>
       </c>
       <c r="N26" t="b">
         <f t="shared" si="4"/>
@@ -5723,31 +5725,31 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="5"/>
-        <v>VicSpriteTable</v>
+        <v>Challenge Paths 4-8</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>294b</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>3288</v>
+        <v>31ff</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>12800</v>
+        <v>10571</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
-        <v>12936</v>
+        <v>12799</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>2229</v>
       </c>
       <c r="H27" t="b">
         <f t="shared" si="8"/>
@@ -5763,11 +5765,11 @@
       </c>
       <c r="L27">
         <f t="shared" si="10"/>
-        <v>12936</v>
+        <v>12799</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="11"/>
-        <v>3288</v>
+        <v>31FF</v>
       </c>
       <c r="N27" t="b">
         <f t="shared" si="4"/>
@@ -5787,31 +5789,31 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="5"/>
-        <v>IRQ</v>
+        <v>VicSpriteTable</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>3289</v>
+        <v>3200</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>3562</v>
+        <v>3288</v>
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>12937</v>
+        <v>12800</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
-        <v>13666</v>
+        <v>12936</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>730</v>
+        <v>137</v>
       </c>
       <c r="H28" t="b">
         <f t="shared" si="8"/>
@@ -5827,11 +5829,11 @@
       </c>
       <c r="L28">
         <f t="shared" si="10"/>
-        <v>13666</v>
+        <v>12936</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="11"/>
-        <v>3562</v>
+        <v>3288</v>
       </c>
       <c r="N28" t="b">
         <f t="shared" si="4"/>
@@ -5851,31 +5853,31 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="5"/>
-        <v>Enemy</v>
+        <v>IRQ</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>3563</v>
+        <v>3289</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
-        <v>35eb</v>
+        <v>357a</v>
       </c>
       <c r="E29">
         <f t="shared" si="6"/>
-        <v>13667</v>
+        <v>12937</v>
       </c>
       <c r="F29">
         <f t="shared" si="7"/>
-        <v>13803</v>
+        <v>13690</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>754</v>
       </c>
       <c r="H29" t="b">
         <f t="shared" si="8"/>
@@ -5891,11 +5893,11 @@
       </c>
       <c r="L29">
         <f t="shared" si="10"/>
-        <v>13803</v>
+        <v>13690</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="11"/>
-        <v>35EB</v>
+        <v>357A</v>
       </c>
       <c r="N29" t="b">
         <f t="shared" si="4"/>
@@ -5915,31 +5917,31 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="5"/>
-        <v>Enemy Variables</v>
+        <v>Enemy</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>35ec</v>
+        <v>357b</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
-        <v>3663</v>
+        <v>35fd</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>13804</v>
+        <v>13691</v>
       </c>
       <c r="F30">
         <f t="shared" si="7"/>
-        <v>13923</v>
+        <v>13821</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H30" t="b">
         <f t="shared" si="8"/>
@@ -5955,11 +5957,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="10"/>
-        <v>13923</v>
+        <v>13821</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="11"/>
-        <v>3663</v>
+        <v>35FD</v>
       </c>
       <c r="N30" t="b">
         <f t="shared" si="4"/>
@@ -5979,31 +5981,31 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="5"/>
-        <v>Plan</v>
+        <v>Enemy Variables</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>3664</v>
+        <v>35fe</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>36ab</v>
+        <v>3675</v>
       </c>
       <c r="E31">
         <f t="shared" si="6"/>
-        <v>13924</v>
+        <v>13822</v>
       </c>
       <c r="F31">
         <f t="shared" si="7"/>
-        <v>13995</v>
+        <v>13941</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H31" t="b">
         <f t="shared" si="8"/>
@@ -6019,11 +6021,11 @@
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>13995</v>
+        <v>13941</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="11"/>
-        <v>36AB</v>
+        <v>3675</v>
       </c>
       <c r="N31" t="b">
         <f t="shared" si="4"/>
@@ -6043,31 +6045,31 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="5"/>
-        <v>Extra</v>
+        <v>Plan</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>36ac</v>
+        <v>3676</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>36ec</v>
+        <v>36b1</v>
       </c>
       <c r="E32">
         <f t="shared" si="6"/>
-        <v>13996</v>
+        <v>13942</v>
       </c>
       <c r="F32">
         <f t="shared" si="7"/>
-        <v>14060</v>
+        <v>14001</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H32" t="b">
         <f t="shared" si="8"/>
@@ -6083,11 +6085,11 @@
       </c>
       <c r="L32">
         <f t="shared" si="10"/>
-        <v>14060</v>
+        <v>14001</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="11"/>
-        <v>36EC</v>
+        <v>36B1</v>
       </c>
       <c r="N32" t="b">
         <f t="shared" si="4"/>
@@ -6107,31 +6109,31 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="5"/>
-        <v>Enemies</v>
+        <v>Extra</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>36ed</v>
+        <v>36b2</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>38d9</v>
+        <v>36cf</v>
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>14061</v>
+        <v>14002</v>
       </c>
       <c r="F33">
         <f t="shared" si="7"/>
-        <v>14553</v>
+        <v>14031</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="H33" t="b">
         <f t="shared" si="8"/>
@@ -6147,11 +6149,11 @@
       </c>
       <c r="L33">
         <f t="shared" si="10"/>
-        <v>14553</v>
+        <v>14031</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="11"/>
-        <v>38D9</v>
+        <v>36CF</v>
       </c>
       <c r="N33" t="b">
         <f t="shared" si="4"/>
@@ -6171,31 +6173,31 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="5"/>
-        <v>Spawn</v>
+        <v>Enemy Ship ID</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>38da</v>
+        <v>36d0</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
-        <v>3b05</v>
+        <v>36f2</v>
       </c>
       <c r="E34">
         <f t="shared" si="6"/>
-        <v>14554</v>
+        <v>14032</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
-        <v>15109</v>
+        <v>14066</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>556</v>
+        <v>35</v>
       </c>
       <c r="H34" t="b">
         <f t="shared" si="8"/>
@@ -6211,11 +6213,11 @@
       </c>
       <c r="L34">
         <f t="shared" si="10"/>
-        <v>15109</v>
+        <v>14066</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="11"/>
-        <v>3B05</v>
+        <v>36F2</v>
       </c>
       <c r="N34" t="b">
         <f t="shared" si="4"/>
@@ -6235,31 +6237,31 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="5"/>
-        <v>Pathfinding</v>
+        <v>Enemies</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>3b06</v>
+        <v>36f3</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
-        <v>4367</v>
+        <v>38f0</v>
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
-        <v>15110</v>
+        <v>14067</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
-        <v>17255</v>
+        <v>14576</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>2146</v>
+        <v>510</v>
       </c>
       <c r="H35" t="b">
         <f t="shared" si="8"/>
@@ -6275,11 +6277,11 @@
       </c>
       <c r="L35">
         <f t="shared" si="10"/>
-        <v>17255</v>
+        <v>14576</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="11"/>
-        <v>4367</v>
+        <v>38F0</v>
       </c>
       <c r="N35" t="b">
         <f t="shared" si="4"/>
@@ -6299,31 +6301,31 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="5"/>
-        <v>Stage</v>
+        <v>Spawn</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>4368</v>
+        <v>38f1</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>46d8</v>
+        <v>3b19</v>
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>17256</v>
+        <v>14577</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
-        <v>18136</v>
+        <v>15129</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>881</v>
+        <v>553</v>
       </c>
       <c r="H36" t="b">
         <f t="shared" si="8"/>
@@ -6339,11 +6341,11 @@
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>18136</v>
+        <v>15129</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="11"/>
-        <v>46D8</v>
+        <v>3B19</v>
       </c>
       <c r="N36" t="b">
         <f t="shared" si="4"/>
@@ -6363,31 +6365,31 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="5"/>
-        <v>Check Complete</v>
+        <v>Pathfinding</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>46d9</v>
+        <v>3b1a</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>478f</v>
+        <v>436d</v>
       </c>
       <c r="E37">
         <f t="shared" si="6"/>
-        <v>18137</v>
+        <v>15130</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
-        <v>18319</v>
+        <v>17261</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>2132</v>
       </c>
       <c r="H37" t="b">
         <f t="shared" si="8"/>
@@ -6403,11 +6405,11 @@
       </c>
       <c r="L37">
         <f t="shared" si="10"/>
-        <v>18319</v>
+        <v>17261</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="11"/>
-        <v>478F</v>
+        <v>436D</v>
       </c>
       <c r="N37" t="b">
         <f t="shared" si="4"/>
@@ -6427,31 +6429,31 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="5"/>
-        <v>---String Data</v>
+        <v>Stage</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>4790</v>
+        <v>436e</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
-        <v>493c</v>
+        <v>46ed</v>
       </c>
       <c r="E38">
         <f t="shared" si="6"/>
-        <v>18320</v>
+        <v>17262</v>
       </c>
       <c r="F38">
         <f t="shared" si="7"/>
-        <v>18748</v>
+        <v>18157</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>896</v>
       </c>
       <c r="H38" t="b">
         <f t="shared" si="8"/>
@@ -6467,11 +6469,11 @@
       </c>
       <c r="L38">
         <f t="shared" si="10"/>
-        <v>18748</v>
+        <v>18157</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="11"/>
-        <v>493C</v>
+        <v>46ED</v>
       </c>
       <c r="N38" t="b">
         <f t="shared" si="4"/>
@@ -6491,31 +6493,31 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="5"/>
-        <v>---Text</v>
+        <v>Check Complete</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>493d</v>
+        <v>46ee</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>4a72</v>
+        <v>47c6</v>
       </c>
       <c r="E39">
         <f t="shared" si="6"/>
-        <v>18749</v>
+        <v>18158</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
-        <v>19058</v>
+        <v>18374</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="H39" t="b">
         <f t="shared" si="8"/>
@@ -6531,11 +6533,11 @@
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>19058</v>
+        <v>18374</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="11"/>
-        <v>4A72</v>
+        <v>47C6</v>
       </c>
       <c r="N39" t="b">
         <f t="shared" si="4"/>
@@ -6555,31 +6557,31 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="5"/>
-        <v>Enemy Data</v>
+        <v>---String Data</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>4a73</v>
+        <v>47c7</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>5718</v>
+        <v>4a68</v>
       </c>
       <c r="E40">
         <f t="shared" si="6"/>
-        <v>19059</v>
+        <v>18375</v>
       </c>
       <c r="F40">
         <f t="shared" si="7"/>
-        <v>22296</v>
+        <v>19048</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>3238</v>
+        <v>674</v>
       </c>
       <c r="H40" t="b">
         <f t="shared" si="8"/>
@@ -6595,11 +6597,11 @@
       </c>
       <c r="L40">
         <f t="shared" si="10"/>
-        <v>22296</v>
+        <v>19048</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="11"/>
-        <v>5718</v>
+        <v>4A68</v>
       </c>
       <c r="N40" t="b">
         <f t="shared" si="4"/>
@@ -6619,31 +6621,31 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="5"/>
-        <v>Title</v>
+        <v>---Text</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>5719</v>
+        <v>4a69</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>5915</v>
+        <v>4b9e</v>
       </c>
       <c r="E41">
         <f t="shared" si="6"/>
-        <v>22297</v>
+        <v>19049</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
-        <v>22805</v>
+        <v>19358</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>509</v>
+        <v>310</v>
       </c>
       <c r="H41" t="b">
         <f t="shared" si="8"/>
@@ -6655,19 +6657,19 @@
       </c>
       <c r="K41">
         <f t="shared" si="3"/>
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="10"/>
-        <v>22805</v>
+        <v>19358</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="11"/>
-        <v>5915</v>
+        <v>4B9E</v>
       </c>
       <c r="N41" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>31</v>
@@ -6683,31 +6685,31 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="5"/>
-        <v>sid</v>
+        <v>Enemy Data</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4b9f</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
-        <v>6be9</v>
+        <v>565e</v>
       </c>
       <c r="E42">
         <f t="shared" si="6"/>
-        <v>24576</v>
+        <v>19359</v>
       </c>
       <c r="F42">
         <f t="shared" si="7"/>
-        <v>27625</v>
+        <v>22110</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>3050</v>
+        <v>2752</v>
       </c>
       <c r="H42" t="b">
         <f t="shared" si="8"/>
@@ -6719,19 +6721,19 @@
       </c>
       <c r="K42">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <f t="shared" si="10"/>
-        <v>27625</v>
+        <v>22110</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="11"/>
-        <v>6BE9</v>
+        <v>565E</v>
       </c>
       <c r="N42" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>32</v>
@@ -6747,31 +6749,31 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="5"/>
-        <v>Main</v>
+        <v>Title</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>6c00</v>
+        <v>565f</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>6de8</v>
+        <v>5857</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:E61" si="16">HEX2DEC(C43)</f>
-        <v>27648</v>
+        <v>22111</v>
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F61" si="17">HEX2DEC(D43)</f>
-        <v>28136</v>
+        <v>22615</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H43" t="b">
         <f t="shared" si="8"/>
@@ -6783,15 +6785,15 @@
       </c>
       <c r="K43">
         <f t="shared" si="3"/>
-        <v>1559</v>
+        <v>1960</v>
       </c>
       <c r="L43">
         <f t="shared" si="10"/>
-        <v>28136</v>
+        <v>22615</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="11"/>
-        <v>6DE8</v>
+        <v>5857</v>
       </c>
       <c r="N43" t="b">
         <f t="shared" si="4"/>
@@ -6811,31 +6813,31 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="5"/>
-        <v>Game Map</v>
+        <v>sid</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>7400</v>
+        <v>6000</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
-        <v>7503</v>
+        <v>6be9</v>
       </c>
       <c r="E44">
         <f t="shared" si="16"/>
-        <v>29696</v>
+        <v>24576</v>
       </c>
       <c r="F44">
         <f t="shared" si="17"/>
-        <v>29955</v>
+        <v>27625</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>3050</v>
       </c>
       <c r="H44" t="b">
         <f t="shared" si="8"/>
@@ -6847,19 +6849,19 @@
       </c>
       <c r="K44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L44">
         <f t="shared" si="10"/>
-        <v>29955</v>
+        <v>27625</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="11"/>
-        <v>7503</v>
+        <v>6BE9</v>
       </c>
       <c r="N44" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>34</v>
@@ -6875,31 +6877,31 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="5"/>
-        <v>Game Tiles</v>
+        <v>Main</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>7504</v>
+        <v>6c00</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>7627</v>
+        <v>6df9</v>
       </c>
       <c r="E45">
         <f t="shared" si="16"/>
-        <v>29956</v>
+        <v>27648</v>
       </c>
       <c r="F45">
         <f t="shared" si="17"/>
-        <v>30247</v>
+        <v>28153</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>506</v>
       </c>
       <c r="H45" t="b">
         <f t="shared" si="8"/>
@@ -6911,15 +6913,15 @@
       </c>
       <c r="K45">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>1542</v>
       </c>
       <c r="L45">
         <f t="shared" si="10"/>
-        <v>30247</v>
+        <v>28153</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="11"/>
-        <v>7627</v>
+        <v>6DF9</v>
       </c>
       <c r="N45" t="b">
         <f t="shared" si="4"/>
@@ -6939,31 +6941,31 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="5"/>
-        <v>Game Colours</v>
+        <v>Game Map</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>77ff</v>
+        <v>7503</v>
       </c>
       <c r="E46">
         <f t="shared" si="16"/>
-        <v>30464</v>
+        <v>29696</v>
       </c>
       <c r="F46">
         <f t="shared" si="17"/>
-        <v>30719</v>
+        <v>29955</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H46" t="b">
         <f t="shared" si="8"/>
@@ -6979,11 +6981,11 @@
       </c>
       <c r="L46">
         <f t="shared" si="10"/>
-        <v>30719</v>
+        <v>29955</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="11"/>
-        <v>77FF</v>
+        <v>7503</v>
       </c>
       <c r="N46" t="b">
         <f t="shared" si="4"/>
@@ -7003,31 +7005,31 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="5"/>
-        <v>Logo</v>
+        <v>Game Tiles</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>7504</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>7847</v>
+        <v>7627</v>
       </c>
       <c r="E47">
         <f t="shared" si="16"/>
-        <v>30720</v>
+        <v>29956</v>
       </c>
       <c r="F47">
         <f t="shared" si="17"/>
-        <v>30791</v>
+        <v>30247</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="H47" t="b">
         <f t="shared" si="8"/>
@@ -7039,15 +7041,15 @@
       </c>
       <c r="K47">
         <f t="shared" si="3"/>
-        <v>1976</v>
+        <v>216</v>
       </c>
       <c r="L47">
         <f t="shared" si="10"/>
-        <v>30791</v>
+        <v>30247</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="11"/>
-        <v>7847</v>
+        <v>7627</v>
       </c>
       <c r="N47" t="b">
         <f t="shared" si="4"/>
@@ -7067,31 +7069,31 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="5"/>
-        <v>Unnamed</v>
+        <v>Game Colours</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>8147</v>
+        <v>77ff</v>
       </c>
       <c r="E48">
         <f t="shared" si="16"/>
-        <v>32768</v>
+        <v>30464</v>
       </c>
       <c r="F48">
         <f t="shared" si="17"/>
-        <v>33095</v>
+        <v>30719</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="H48" t="b">
         <f t="shared" si="8"/>
@@ -7107,11 +7109,11 @@
       </c>
       <c r="L48">
         <f t="shared" si="10"/>
-        <v>33095</v>
+        <v>30719</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="11"/>
-        <v>8147</v>
+        <v>77FF</v>
       </c>
       <c r="N48" t="b">
         <f t="shared" si="4"/>
@@ -7131,31 +7133,31 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="5"/>
-        <v>Score</v>
+        <v>Logo</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>8148</v>
+        <v>7800</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>8453</v>
+        <v>7847</v>
       </c>
       <c r="E49">
         <f t="shared" si="16"/>
-        <v>33096</v>
+        <v>30720</v>
       </c>
       <c r="F49">
         <f t="shared" si="17"/>
-        <v>33875</v>
+        <v>30791</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>780</v>
+        <v>72</v>
       </c>
       <c r="H49" t="b">
         <f t="shared" si="8"/>
@@ -7167,19 +7169,19 @@
       </c>
       <c r="K49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1976</v>
       </c>
       <c r="L49">
         <f t="shared" si="10"/>
-        <v>33875</v>
+        <v>30791</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="11"/>
-        <v>8453</v>
+        <v>7847</v>
       </c>
       <c r="N49" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -7195,31 +7197,31 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="5"/>
-        <v>Bombs</v>
+        <v>Unnamed</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>8454</v>
+        <v>8000</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>89b5</v>
+        <v>8147</v>
       </c>
       <c r="E50">
         <f t="shared" si="16"/>
-        <v>33876</v>
+        <v>32768</v>
       </c>
       <c r="F50">
         <f t="shared" si="17"/>
-        <v>35253</v>
+        <v>33095</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>1378</v>
+        <v>328</v>
       </c>
       <c r="H50" t="b">
         <f t="shared" si="8"/>
@@ -7235,11 +7237,11 @@
       </c>
       <c r="L50">
         <f t="shared" si="10"/>
-        <v>35253</v>
+        <v>33095</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="11"/>
-        <v>89B5</v>
+        <v>8147</v>
       </c>
       <c r="N50" t="b">
         <f t="shared" si="4"/>
@@ -7259,31 +7261,31 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="5"/>
-        <v>Lives</v>
+        <v>Score</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>89b6</v>
+        <v>8148</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>8b94</v>
+        <v>849d</v>
       </c>
       <c r="E51">
         <f t="shared" si="16"/>
-        <v>35254</v>
+        <v>33096</v>
       </c>
       <c r="F51">
         <f t="shared" si="17"/>
-        <v>35732</v>
+        <v>33949</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>479</v>
+        <v>854</v>
       </c>
       <c r="H51" t="b">
         <f t="shared" si="8"/>
@@ -7299,11 +7301,11 @@
       </c>
       <c r="L51">
         <f t="shared" si="10"/>
-        <v>35732</v>
+        <v>33949</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="11"/>
-        <v>8B94</v>
+        <v>849D</v>
       </c>
       <c r="N51" t="b">
         <f t="shared" si="4"/>
@@ -7323,31 +7325,31 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="5"/>
-        <v>Pre-Stage</v>
+        <v>Bombs</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>8b95</v>
+        <v>849e</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>8e66</v>
+        <v>89ff</v>
       </c>
       <c r="E52">
         <f t="shared" si="16"/>
-        <v>35733</v>
+        <v>33950</v>
       </c>
       <c r="F52">
         <f t="shared" si="17"/>
-        <v>36454</v>
+        <v>35327</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>722</v>
+        <v>1378</v>
       </c>
       <c r="H52" t="b">
         <f t="shared" si="8"/>
@@ -7363,11 +7365,11 @@
       </c>
       <c r="L52">
         <f t="shared" si="10"/>
-        <v>36454</v>
+        <v>35327</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="11"/>
-        <v>8E66</v>
+        <v>89FF</v>
       </c>
       <c r="N52" t="b">
         <f t="shared" si="4"/>
@@ -7387,31 +7389,31 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="5"/>
-        <v>-Random</v>
+        <v>Lives</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>8e67</v>
+        <v>8a00</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>8ec1</v>
+        <v>8bde</v>
       </c>
       <c r="E53">
         <f t="shared" si="16"/>
-        <v>36455</v>
+        <v>35328</v>
       </c>
       <c r="F53">
         <f t="shared" si="17"/>
-        <v>36545</v>
+        <v>35806</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="H53" t="b">
         <f t="shared" si="8"/>
@@ -7427,11 +7429,11 @@
       </c>
       <c r="L53">
         <f t="shared" si="10"/>
-        <v>36545</v>
+        <v>35806</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="11"/>
-        <v>8EC1</v>
+        <v>8BDE</v>
       </c>
       <c r="N53" t="b">
         <f t="shared" si="4"/>
@@ -7451,31 +7453,31 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="5"/>
-        <v>-Plot</v>
+        <v>Pre-Stage</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>8ec2</v>
+        <v>8bdf</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>8f86</v>
+        <v>8eb0</v>
       </c>
       <c r="E54">
         <f t="shared" si="16"/>
-        <v>36546</v>
+        <v>35807</v>
       </c>
       <c r="F54">
         <f t="shared" si="17"/>
-        <v>36742</v>
+        <v>36528</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>197</v>
+        <v>722</v>
       </c>
       <c r="H54" t="b">
         <f t="shared" si="8"/>
@@ -7491,11 +7493,11 @@
       </c>
       <c r="L54">
         <f t="shared" si="10"/>
-        <v>36742</v>
+        <v>36528</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="11"/>
-        <v>8F86</v>
+        <v>8EB0</v>
       </c>
       <c r="N54" t="b">
         <f t="shared" si="4"/>
@@ -7515,31 +7517,31 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="5"/>
-        <v>STATS</v>
+        <v>-Random</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>8f87</v>
+        <v>8eb1</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>91f2</v>
+        <v>8f02</v>
       </c>
       <c r="E55">
         <f t="shared" si="16"/>
-        <v>36743</v>
+        <v>36529</v>
       </c>
       <c r="F55">
         <f t="shared" si="17"/>
-        <v>37362</v>
+        <v>36610</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="H55" t="b">
         <f t="shared" si="8"/>
@@ -7555,11 +7557,11 @@
       </c>
       <c r="L55">
         <f t="shared" si="10"/>
-        <v>37362</v>
+        <v>36610</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="11"/>
-        <v>91F2</v>
+        <v>8F02</v>
       </c>
       <c r="N55" t="b">
         <f t="shared" si="4"/>
@@ -7579,31 +7581,31 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="5"/>
-        <v>GAME OVER</v>
+        <v>-Plot</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>91f3</v>
+        <v>8f03</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>91f4</v>
+        <v>8fac</v>
       </c>
       <c r="E56">
         <f t="shared" si="16"/>
-        <v>37363</v>
+        <v>36611</v>
       </c>
       <c r="F56">
         <f t="shared" si="17"/>
-        <v>37364</v>
+        <v>36780</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="H56" t="b">
         <f t="shared" si="8"/>
@@ -7615,7 +7617,7 @@
       </c>
       <c r="J56">
         <f>G64+G62+G60</f>
-        <v>8530</v>
+        <v>2865</v>
       </c>
       <c r="K56">
         <f t="shared" si="3"/>
@@ -7623,11 +7625,11 @@
       </c>
       <c r="L56">
         <f t="shared" si="10"/>
-        <v>37364</v>
+        <v>36780</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="11"/>
-        <v>91F4</v>
+        <v>8FAC</v>
       </c>
       <c r="N56" t="b">
         <f t="shared" si="4"/>
@@ -7647,31 +7649,31 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>STATS</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>91f5</v>
+        <v>8fad</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="E57">
         <f t="shared" si="16"/>
-        <v>37365</v>
+        <v>36781</v>
       </c>
       <c r="F57">
         <f t="shared" si="17"/>
-        <v>37401</v>
+        <v>37400</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>620</v>
       </c>
       <c r="H57" t="b">
         <f t="shared" si="8"/>
@@ -7687,11 +7689,11 @@
       </c>
       <c r="L57">
         <f t="shared" si="10"/>
-        <v>37401</v>
+        <v>37400</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="11"/>
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="N57" t="b">
         <f t="shared" si="4"/>
@@ -7711,31 +7713,31 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="5"/>
-        <v>DisplayGameOver</v>
+        <v>GAME OVER</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>921a</v>
+        <v>9219</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>93ef</v>
+        <v>921a</v>
       </c>
       <c r="E58">
         <f t="shared" si="16"/>
-        <v>37402</v>
+        <v>37401</v>
       </c>
       <c r="F58">
         <f t="shared" si="17"/>
-        <v>37871</v>
+        <v>37402</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="H58" t="b">
         <f t="shared" si="8"/>
@@ -7751,11 +7753,11 @@
       </c>
       <c r="L58">
         <f t="shared" si="10"/>
-        <v>37871</v>
+        <v>37402</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="11"/>
-        <v>93EF</v>
+        <v>921A</v>
       </c>
       <c r="N58" t="b">
         <f t="shared" si="4"/>
@@ -7778,31 +7780,31 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="5"/>
-        <v>BEAM</v>
+        <v/>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>93f0</v>
+        <v>921b</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>99a3</v>
+        <v>923f</v>
       </c>
       <c r="E59">
         <f t="shared" si="16"/>
-        <v>37872</v>
+        <v>37403</v>
       </c>
       <c r="F59">
         <f t="shared" si="17"/>
-        <v>39331</v>
+        <v>37439</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>1460</v>
+        <v>37</v>
       </c>
       <c r="H59" t="b">
         <f t="shared" si="8"/>
@@ -7818,11 +7820,11 @@
       </c>
       <c r="L59">
         <f t="shared" si="10"/>
-        <v>39331</v>
+        <v>37439</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="11"/>
-        <v>99A3</v>
+        <v>923F</v>
       </c>
       <c r="N59" t="b">
         <f t="shared" si="4"/>
@@ -7842,31 +7844,31 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="5"/>
-        <v>-Sound</v>
+        <v>DisplayGameOver</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>99a4</v>
+        <v>9240</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>9ee2</v>
+        <v>941a</v>
       </c>
       <c r="E60">
         <f t="shared" si="16"/>
-        <v>39332</v>
+        <v>37440</v>
       </c>
       <c r="F60">
         <f t="shared" si="17"/>
-        <v>40674</v>
+        <v>37914</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>1343</v>
+        <v>475</v>
       </c>
       <c r="H60" t="b">
         <f t="shared" si="8"/>
@@ -7882,11 +7884,11 @@
       </c>
       <c r="L60">
         <f t="shared" si="10"/>
-        <v>40674</v>
+        <v>37914</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="11"/>
-        <v>9EE2</v>
+        <v>941A</v>
       </c>
       <c r="N60" t="b">
         <f t="shared" si="4"/>
@@ -7906,31 +7908,31 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="5"/>
-        <v>Attacks</v>
+        <v>BEAM</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>9ee3</v>
+        <v>941b</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>9f2d</v>
+        <v>99d3</v>
       </c>
       <c r="E61">
         <f t="shared" si="16"/>
-        <v>40675</v>
+        <v>37915</v>
       </c>
       <c r="F61">
         <f t="shared" si="17"/>
-        <v>40749</v>
+        <v>39379</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>1465</v>
       </c>
       <c r="H61" t="b">
         <f t="shared" si="8"/>
@@ -7946,11 +7948,11 @@
       </c>
       <c r="L61">
         <f t="shared" si="10"/>
-        <v>40749</v>
+        <v>39379</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="11"/>
-        <v>9F2D</v>
+        <v>99D3</v>
       </c>
       <c r="N61" t="b">
         <f t="shared" si="4"/>
@@ -7970,31 +7972,31 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="5"/>
-        <v>Attackers</v>
+        <v>-Sound</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>9f2e</v>
+        <v>99d4</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>a340</v>
+        <v>9f16</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E63" si="18">HEX2DEC(C62)</f>
-        <v>40750</v>
+        <v>39380</v>
       </c>
       <c r="F62">
         <f t="shared" ref="F62:F63" si="19">HEX2DEC(D62)</f>
-        <v>41792</v>
+        <v>40726</v>
       </c>
       <c r="G62">
         <f t="shared" ref="G62:G63" si="20">IF(F62&gt;0,F62-E62+1,0)</f>
-        <v>1043</v>
+        <v>1347</v>
       </c>
       <c r="H62" t="b">
         <f t="shared" ref="H62:H63" si="21">IF(B62=" ",FALSE,TRUE)</f>
@@ -8006,19 +8008,19 @@
       </c>
       <c r="K62">
         <f t="shared" si="3"/>
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <f t="shared" si="10"/>
-        <v>41792</v>
+        <v>40726</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="11"/>
-        <v>A340</v>
+        <v>9F16</v>
       </c>
       <c r="N62" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>52</v>
@@ -8034,31 +8036,31 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="5"/>
-        <v>Game ZP Backup</v>
+        <v>Attacks</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>a400</v>
+        <v>9f17</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>a5ff</v>
+        <v>9f61</v>
       </c>
       <c r="E63">
         <f t="shared" si="18"/>
-        <v>41984</v>
+        <v>40727</v>
       </c>
       <c r="F63">
         <f t="shared" si="19"/>
-        <v>42495</v>
+        <v>40801</v>
       </c>
       <c r="G63">
         <f t="shared" si="20"/>
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="H63" t="b">
         <f t="shared" si="21"/>
@@ -8070,19 +8072,19 @@
       </c>
       <c r="K63">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <f t="shared" si="10"/>
-        <v>42495</v>
+        <v>40801</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="11"/>
-        <v>A5FF</v>
+        <v>9F61</v>
       </c>
       <c r="N63" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>53</v>
@@ -8098,31 +8100,31 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="5"/>
-        <v>Sprites Source</v>
+        <v>Attackers</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>a800</v>
+        <v>9f62</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>bfff</v>
+        <v>a374</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:E126" si="22">HEX2DEC(C64)</f>
-        <v>43008</v>
+        <v>40802</v>
       </c>
       <c r="F64">
         <f t="shared" ref="F64:F126" si="23">HEX2DEC(D64)</f>
-        <v>49151</v>
+        <v>41844</v>
       </c>
       <c r="G64">
         <f t="shared" ref="G64:G126" si="24">IF(F64&gt;0,F64-E64+1,0)</f>
-        <v>6144</v>
+        <v>1043</v>
       </c>
       <c r="H64" t="b">
         <f t="shared" ref="H64:H126" si="25">IF(B64=" ",FALSE,TRUE)</f>
@@ -8134,15 +8136,15 @@
       </c>
       <c r="K64">
         <f t="shared" si="3"/>
-        <v>1024</v>
+        <v>139</v>
       </c>
       <c r="L64">
         <f t="shared" si="10"/>
-        <v>49151</v>
+        <v>41844</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="11"/>
-        <v>BFFF</v>
+        <v>A374</v>
       </c>
       <c r="N64" t="b">
         <f t="shared" si="4"/>
@@ -8162,31 +8164,31 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="5"/>
-        <v>Sprites</v>
+        <v>Game ZP Backup</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>c400</v>
+        <v>a400</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>e47f</v>
+        <v>a5ff</v>
       </c>
       <c r="E65">
         <f t="shared" si="22"/>
-        <v>50176</v>
+        <v>41984</v>
       </c>
       <c r="F65">
         <f t="shared" si="23"/>
-        <v>58495</v>
+        <v>42495</v>
       </c>
       <c r="G65">
         <f t="shared" si="24"/>
-        <v>8320</v>
+        <v>512</v>
       </c>
       <c r="H65" t="b">
         <f t="shared" si="25"/>
@@ -8198,15 +8200,15 @@
       </c>
       <c r="K65">
         <f>IF(E66&gt;0,E66-F65-1,0)</f>
-        <v>2944</v>
+        <v>512</v>
       </c>
       <c r="L65">
         <f t="shared" si="10"/>
-        <v>58495</v>
+        <v>42495</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="11"/>
-        <v>E47F</v>
+        <v>A5FF</v>
       </c>
       <c r="N65" t="b">
         <f t="shared" si="4"/>
@@ -8226,31 +8228,31 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="5"/>
-        <v>Charset</v>
+        <v>Sprites Source</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
-        <v>f000</v>
+        <v>a800</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
-        <v>f7ff</v>
+        <v>bfff</v>
       </c>
       <c r="E66">
         <f t="shared" si="22"/>
-        <v>61440</v>
+        <v>43008</v>
       </c>
       <c r="F66">
         <f t="shared" si="23"/>
-        <v>63487</v>
+        <v>49151</v>
       </c>
       <c r="G66">
         <f t="shared" si="24"/>
-        <v>2048</v>
+        <v>6144</v>
       </c>
       <c r="H66" t="b">
         <f t="shared" si="25"/>
@@ -8262,19 +8264,19 @@
       </c>
       <c r="K66">
         <f t="shared" ref="K66:K128" si="26">IF(E67&gt;0,E67-F66-1,0)</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="L66">
         <f t="shared" si="10"/>
-        <v>63487</v>
+        <v>49151</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="11"/>
-        <v>F7FF</v>
+        <v>BFFF</v>
       </c>
       <c r="N66" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>56</v>
@@ -8290,31 +8292,31 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="5"/>
-        <v>Unnamed</v>
+        <v>Sprites</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C129" si="27">IF(ISERROR(FIND("*",$A67,1)),MID($A67,4,4),MID(TRIM($A67),3,4))</f>
-        <v>f800</v>
+        <v>c400</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D129" si="28">IF(ISERROR(FIND("*",$A67,1)),MID($A67,10,4),MID(TRIM($A67),9,4))</f>
-        <v>f7ff</v>
+        <v>e4bf</v>
       </c>
       <c r="E67">
         <f t="shared" si="22"/>
-        <v>63488</v>
+        <v>50176</v>
       </c>
       <c r="F67">
         <f t="shared" si="23"/>
-        <v>63487</v>
+        <v>58559</v>
       </c>
       <c r="G67">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8384</v>
       </c>
       <c r="H67" t="b">
         <f t="shared" si="25"/>
@@ -8326,19 +8328,19 @@
       </c>
       <c r="K67">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2880</v>
       </c>
       <c r="L67">
         <f t="shared" si="10"/>
-        <v>63487</v>
+        <v>58559</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="11"/>
-        <v>F7FF</v>
+        <v>E4BF</v>
       </c>
       <c r="N67" t="b">
         <f t="shared" ref="N67:N129" si="29">K67&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>57</v>
@@ -8354,31 +8356,31 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B69" si="30">RIGHT(A68,LEN(A68)-14)</f>
-        <v>High Scores</v>
+        <f t="shared" ref="B68:B72" si="30">RIGHT(A68,LEN(A68)-14)</f>
+        <v>Charset</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="27"/>
-        <v>f800</v>
+        <v>f000</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="28"/>
-        <v>f829</v>
+        <v>f7ff</v>
       </c>
       <c r="E68">
         <f t="shared" si="22"/>
-        <v>63488</v>
+        <v>61440</v>
       </c>
       <c r="F68">
         <f t="shared" si="23"/>
-        <v>63529</v>
+        <v>63487</v>
       </c>
       <c r="G68">
         <f t="shared" si="24"/>
-        <v>42</v>
+        <v>2048</v>
       </c>
       <c r="H68" t="b">
         <f t="shared" si="25"/>
@@ -8394,11 +8396,11 @@
       </c>
       <c r="L68">
         <f t="shared" ref="L68:L130" si="32">F68</f>
-        <v>63529</v>
+        <v>63487</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="11"/>
-        <v>F829</v>
+        <v>F7FF</v>
       </c>
       <c r="N68" t="b">
         <f t="shared" si="29"/>
@@ -8418,31 +8420,31 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="30"/>
-        <v>Position</v>
+        <v>Unnamed</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="27"/>
-        <v>f82a</v>
+        <v>f800</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="28"/>
-        <v>fc50</v>
+        <v>f7ff</v>
       </c>
       <c r="E69">
         <f t="shared" si="22"/>
-        <v>63530</v>
+        <v>63488</v>
       </c>
       <c r="F69">
         <f t="shared" si="23"/>
-        <v>64592</v>
+        <v>63487</v>
       </c>
       <c r="G69">
         <f t="shared" si="24"/>
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="H69" t="b">
         <f t="shared" si="25"/>
@@ -8458,11 +8460,11 @@
       </c>
       <c r="L69">
         <f t="shared" si="32"/>
-        <v>64592</v>
+        <v>63487</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" ref="M69:M131" si="33">DEC2HEX(L69,4)</f>
-        <v>FC50</v>
+        <v>F7FF</v>
       </c>
       <c r="N69" t="b">
         <f t="shared" si="29"/>
@@ -8481,25 +8483,32 @@
       </c>
     </row>
     <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="30"/>
+        <v>High Scores</v>
+      </c>
       <c r="C70" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>f800</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>f829</v>
       </c>
       <c r="E70">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>63488</v>
       </c>
       <c r="F70">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>63529</v>
       </c>
       <c r="G70">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H70" t="b">
         <f t="shared" si="25"/>
@@ -8515,11 +8524,11 @@
       </c>
       <c r="L70">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>63529</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="33"/>
-        <v>0000</v>
+        <v>F829</v>
       </c>
       <c r="N70" t="b">
         <f t="shared" si="29"/>
@@ -8538,25 +8547,32 @@
       </c>
     </row>
     <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="30"/>
+        <v>Position</v>
+      </c>
       <c r="C71" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>f82a</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>fc5f</v>
       </c>
       <c r="E71">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>63530</v>
       </c>
       <c r="F71">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>64607</v>
       </c>
       <c r="G71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="H71" t="b">
         <f t="shared" si="25"/>
@@ -8572,11 +8588,11 @@
       </c>
       <c r="L71">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>64607</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="33"/>
-        <v>0000</v>
+        <v>FC5F</v>
       </c>
       <c r="N71" t="b">
         <f t="shared" si="29"/>
@@ -8595,25 +8611,32 @@
       </c>
     </row>
     <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="30"/>
+        <v>Demo</v>
+      </c>
       <c r="C72" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>fc60</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>fc8f</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:E73" si="34">HEX2DEC(C72)</f>
-        <v>0</v>
+        <v>64608</v>
       </c>
       <c r="F72">
         <f t="shared" ref="F72:F73" si="35">HEX2DEC(D72)</f>
-        <v>0</v>
+        <v>64655</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72:G75" si="36">IF(F72&gt;0,F72-E72+1,0)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H72" t="b">
         <f t="shared" ref="H72:H75" si="37">IF(B72=" ",FALSE,TRUE)</f>
@@ -8629,11 +8652,11 @@
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L75" si="39">F72</f>
-        <v>0</v>
+        <v>64655</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="33"/>
-        <v>0000</v>
+        <v>FC8F</v>
       </c>
       <c r="N72" t="b">
         <f t="shared" ref="N72:N75" si="40">K72&gt;0</f>
@@ -14366,7 +14389,7 @@
       </c>
       <c r="G174">
         <f>65536-SUM(G2:G173)</f>
-        <v>13070</v>
+        <v>13063</v>
       </c>
       <c r="H174" t="b">
         <f t="shared" ref="H174" si="62">IF(B174=" ",FALSE,TRUE)</f>
@@ -14394,7 +14417,7 @@
     <row r="175" spans="2:18">
       <c r="K175">
         <f>SUM(K4:K150)</f>
-        <v>12125</v>
+        <v>12181</v>
       </c>
       <c r="N175" t="b">
         <f t="shared" si="55"/>
@@ -17265,8 +17288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM124"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C69" sqref="C68:C69"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17421,7 +17444,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>13070</v>
+        <v>13063</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -17460,10 +17483,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -17506,7 +17529,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3">
         <v>17</v>
@@ -17552,7 +17575,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
@@ -17598,7 +17621,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3">
         <v>100</v>
@@ -17644,7 +17667,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3">
         <v>47</v>
@@ -17782,7 +17805,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3">
         <v>35</v>
@@ -17878,7 +17901,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="3">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -17924,7 +17947,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="3">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -18062,7 +18085,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="3">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -18105,7 +18128,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3">
         <v>154</v>
@@ -18197,10 +18220,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3">
-        <v>1935</v>
+        <v>1988</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -18246,7 +18269,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="3">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -18568,7 +18591,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="3">
-        <v>2567</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -18608,10 +18631,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3">
-        <v>137</v>
+        <v>2229</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -18651,10 +18674,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3">
-        <v>730</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -18694,10 +18717,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3">
-        <v>137</v>
+        <v>754</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -18737,10 +18760,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I34">
         <v>21333</v>
@@ -18777,10 +18800,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C35" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I35">
         <v>21314</v>
@@ -18817,10 +18840,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I36">
         <v>20607</v>
@@ -18857,10 +18880,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C37" s="3">
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="I37">
         <v>20525</v>
@@ -18897,10 +18920,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C38" s="3">
-        <v>556</v>
+        <v>35</v>
       </c>
       <c r="I38">
         <v>20194</v>
@@ -18937,10 +18960,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3">
-        <v>2146</v>
+        <v>510</v>
       </c>
       <c r="I39">
         <v>19996</v>
@@ -18977,10 +19000,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3">
-        <v>881</v>
+        <v>553</v>
       </c>
       <c r="I40">
         <v>19752</v>
@@ -19017,10 +19040,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3">
-        <v>183</v>
+        <v>2132</v>
       </c>
       <c r="I41">
         <v>19700</v>
@@ -19057,10 +19080,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C42" s="3">
-        <v>429</v>
+        <v>896</v>
       </c>
       <c r="I42">
         <v>19592</v>
@@ -19097,10 +19120,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="I43">
         <v>19549</v>
@@ -19137,10 +19160,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3">
-        <v>3238</v>
+        <v>674</v>
       </c>
       <c r="I44">
         <v>19531</v>
@@ -19177,10 +19200,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3">
-        <v>509</v>
+        <v>310</v>
       </c>
       <c r="I45">
         <v>19467</v>
@@ -19217,10 +19240,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3">
-        <v>3050</v>
+        <v>2752</v>
       </c>
       <c r="I46">
         <v>19464</v>
@@ -19257,10 +19280,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="I47">
         <v>19401</v>
@@ -19297,10 +19320,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3">
-        <v>260</v>
+        <v>3050</v>
       </c>
       <c r="I48">
         <v>19188</v>
@@ -19337,10 +19360,10 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3">
-        <v>292</v>
+        <v>506</v>
       </c>
       <c r="I49">
         <v>18801</v>
@@ -19377,10 +19400,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="3">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I50">
         <v>18777</v>
@@ -19417,10 +19440,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="3">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="I51">
         <v>18773</v>
@@ -19457,10 +19480,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C52" s="3">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="I52">
         <v>18804</v>
@@ -19497,10 +19520,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3">
-        <v>780</v>
+        <v>72</v>
       </c>
       <c r="I53">
         <v>18824</v>
@@ -19537,10 +19560,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3">
-        <v>1378</v>
+        <v>328</v>
       </c>
       <c r="I54">
         <v>18854</v>
@@ -19577,10 +19600,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="3">
-        <v>479</v>
+        <v>854</v>
       </c>
       <c r="I55">
         <v>18851</v>
@@ -19617,10 +19640,10 @@
         <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="3">
-        <v>722</v>
+        <v>1378</v>
       </c>
       <c r="I56">
         <v>18902</v>
@@ -19657,10 +19680,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C57" s="3">
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="I57">
         <v>18905</v>
@@ -19697,10 +19720,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3">
-        <v>197</v>
+        <v>722</v>
       </c>
       <c r="I58">
         <v>18926</v>
@@ -19737,10 +19760,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C59" s="3">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="I59">
         <v>18949</v>
@@ -19777,10 +19800,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="I60">
         <v>18948</v>
@@ -19816,9 +19839,11 @@
       <c r="A61">
         <v>56</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C61" s="3">
-        <v>37</v>
+        <v>620</v>
       </c>
       <c r="I61">
         <v>18965</v>
@@ -19855,10 +19880,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="3">
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>18976</v>
@@ -19894,11 +19919,9 @@
       <c r="A63">
         <v>58</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="3">
-        <v>1460</v>
+        <v>37</v>
       </c>
       <c r="I63">
         <v>17893</v>
@@ -19935,10 +19958,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3">
-        <v>1343</v>
+        <v>475</v>
       </c>
       <c r="I64">
         <v>17883</v>
@@ -19975,10 +19998,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C65" s="3">
-        <v>75</v>
+        <v>1465</v>
       </c>
       <c r="I65">
         <v>17535</v>
@@ -20004,10 +20027,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3">
-        <v>1043</v>
+        <v>1347</v>
       </c>
       <c r="I66">
         <v>17241</v>
@@ -20033,10 +20056,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C67" s="3">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="I67">
         <v>17108</v>
@@ -20062,10 +20085,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C68" s="3">
-        <v>6144</v>
+        <v>1043</v>
       </c>
       <c r="I68">
         <v>16896</v>
@@ -20091,10 +20114,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C69" s="3">
-        <v>8320</v>
+        <v>512</v>
       </c>
       <c r="I69">
         <v>16463</v>
@@ -20120,10 +20143,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3">
-        <v>2048</v>
+        <v>6144</v>
       </c>
       <c r="I70">
         <v>16461</v>
@@ -20149,10 +20172,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C71" s="3">
-        <v>0</v>
+        <v>8384</v>
       </c>
       <c r="I71">
         <v>16402</v>
@@ -20178,10 +20201,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="C72" s="3">
-        <v>42</v>
+        <v>2048</v>
       </c>
       <c r="I72">
         <v>16352</v>
@@ -20207,10 +20230,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="C73" s="3">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>16074</v>
@@ -20236,10 +20259,10 @@
         <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I74">
         <v>15850</v>
@@ -20265,10 +20288,10 @@
         <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C75" s="3">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="I75">
         <v>15561</v>
@@ -20294,10 +20317,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C76" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I76">
         <v>15352</v>
